--- a/20250922_Externe_KI_Use_Cases_abridged.xlsx
+++ b/20250922_Externe_KI_Use_Cases_abridged.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Dropdowns" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Benchmarking!$A$1:$O$432</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Benchmarking!$A$1:$O$362</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -8527,11 +8527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O432"/>
+  <dimension ref="A1:O362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8640,7 +8640,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L2), "", L2), IF(ISBLANK(M2), "", (";"&amp;M2)), IF(ISBLANK(N2), "", (";"&amp;N2)))</f>
+        <f t="shared" ref="O2:O65" si="0" xml:space="preserve"> CONCATENATE(IF(ISBLANK(L2), "", L2), IF(ISBLANK(M2), "", (";"&amp;M2)), IF(ISBLANK(N2), "", (";"&amp;N2)))</f>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -8658,7 +8658,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E66" si="0">C3 &amp; " - " &amp; D3</f>
+        <f t="shared" ref="E3:E66" si="1">C3 &amp; " - " &amp; D3</f>
         <v>Deutsche Bank - Black Forest</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -8685,7 +8685,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L3), "", L3), IF(ISBLANK(M3), "", (";"&amp;M3)), IF(ISBLANK(N3), "", (";"&amp;N3)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -8729,7 +8729,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L4), "", L4), IF(ISBLANK(M4), "", (";"&amp;M4)), IF(ISBLANK(N4), "", (";"&amp;N4)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -8747,7 +8747,7 @@
         <v>54</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DKB - Herbie</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -8778,7 +8778,7 @@
         <v>59</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L5), "", L5), IF(ISBLANK(M5), "", (";"&amp;M5)), IF(ISBLANK(N5), "", (";"&amp;N5)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -8796,7 +8796,7 @@
         <v>66</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DZ Bank - Cognito Detect (IT-Sicherheit)</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -8823,7 +8823,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L6), "", L6), IF(ISBLANK(M6), "", (";"&amp;M6)), IF(ISBLANK(N6), "", (";"&amp;N6)))</f>
+        <f t="shared" si="0"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>VR Bank - Hawk AI</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -8868,7 +8868,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L7), "", L7), IF(ISBLANK(M7), "", (";"&amp;M7)), IF(ISBLANK(N7), "", (";"&amp;N7)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
         <v>78</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nordea Bank - Nova</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -8913,7 +8913,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L8), "", L8), IF(ISBLANK(M8), "", (";"&amp;M8)), IF(ISBLANK(N8), "", (";"&amp;N8)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BNP Paribas - (Banken-spezifischer Übersetzer)</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -8958,7 +8958,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L9), "", L9), IF(ISBLANK(M9), "", (";"&amp;M9)), IF(ISBLANK(N9), "", (";"&amp;N9)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -8976,7 +8976,7 @@
         <v>91</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BNP Paribas - (Datenextraktion aus Berichten)</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -9003,7 +9003,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L10), "", L10), IF(ISBLANK(M10), "", (";"&amp;M10)), IF(ISBLANK(N10), "", (";"&amp;N10)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
         <v>96</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BNP Paribas - SEARCH</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -9048,7 +9048,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L11), "", L11), IF(ISBLANK(M11), "", (";"&amp;M11)), IF(ISBLANK(N11), "", (";"&amp;N11)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
         <v>101</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BNP Paribas - One KYC</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L12), "", L12), IF(ISBLANK(M12), "", (";"&amp;M12)), IF(ISBLANK(N12), "", (";"&amp;N12)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
         <v>108</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Crédit Agricole - (CSR Report Auswertung)</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -9140,7 +9140,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L13), "", L13), IF(ISBLANK(M13), "", (";"&amp;M13)), IF(ISBLANK(N13), "", (";"&amp;N13)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -9158,7 +9158,7 @@
         <v>113</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Crédit Agricole - 365 Talents</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -9185,7 +9185,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L14), "", L14), IF(ISBLANK(M14), "", (";"&amp;M14)), IF(ISBLANK(N14), "", (";"&amp;N14)))</f>
+        <f t="shared" si="0"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -9203,7 +9203,7 @@
         <v>119</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - MOSAIC</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -9230,7 +9230,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L15), "", L15), IF(ISBLANK(M15), "", (";"&amp;M15)), IF(ISBLANK(N15), "", (";"&amp;N15)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -9248,7 +9248,7 @@
         <v>124</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Eliott</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L16), "", L16), IF(ISBLANK(M16), "", (";"&amp;M16)), IF(ISBLANK(N16), "", (";"&amp;N16)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
         <v>128</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Sobot</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -9326,7 +9326,7 @@
         <v>1684</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L17), "", L17), IF(ISBLANK(M17), "", (";"&amp;M17)), IF(ISBLANK(N17), "", (";"&amp;N17)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
         <v>131</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Cast</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -9371,7 +9371,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="5"/>
       <c r="O18" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L18), "", L18), IF(ISBLANK(M18), "", (";"&amp;M18)), IF(ISBLANK(N18), "", (";"&amp;N18)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -9389,7 +9389,7 @@
         <v>135</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Change Lié</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -9416,7 +9416,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L19), "", L19), IF(ISBLANK(M19), "", (";"&amp;M19)), IF(ISBLANK(N19), "", (";"&amp;N19)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
         <v>141</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Trading Assistant</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -9461,7 +9461,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L20), "", L20), IF(ISBLANK(M20), "", (";"&amp;M20)), IF(ISBLANK(N20), "", (";"&amp;N20)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -9479,7 +9479,7 @@
         <v>146</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Instant-KYC</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -9506,7 +9506,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L21), "", L21), IF(ISBLANK(M21), "", (";"&amp;M21)), IF(ISBLANK(N21), "", (";"&amp;N21)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -9524,7 +9524,7 @@
         <v>151</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Legal Assistent</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -9551,7 +9551,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="5"/>
       <c r="O22" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L22), "", L22), IF(ISBLANK(M22), "", (";"&amp;M22)), IF(ISBLANK(N22), "", (";"&amp;N22)))</f>
+        <f t="shared" si="0"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
         <v>157</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Nacre</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -9596,7 +9596,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L23), "", L23), IF(ISBLANK(M23), "", (";"&amp;M23)), IF(ISBLANK(N23), "", (";"&amp;N23)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -9614,7 +9614,7 @@
         <v>162</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - SG Markets - My Cases</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -9641,7 +9641,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L24), "", L24), IF(ISBLANK(M24), "", (";"&amp;M24)), IF(ISBLANK(N24), "", (";"&amp;N24)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -9659,7 +9659,7 @@
         <v>167</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - ACE</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -9686,7 +9686,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L25), "", L25), IF(ISBLANK(M25), "", (";"&amp;M25)), IF(ISBLANK(N25), "", (";"&amp;N25)))</f>
+        <f t="shared" si="0"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
         <v>172</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Investor Appetite</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L26), "", L26), IF(ISBLANK(M26), "", (";"&amp;M26)), IF(ISBLANK(N26), "", (";"&amp;N26)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
         <v>177</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Société Générale - Stella</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -9778,7 +9778,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L27), "", L27), IF(ISBLANK(M27), "", (";"&amp;M27)), IF(ISBLANK(N27), "", (";"&amp;N27)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -9796,7 +9796,7 @@
         <v>184</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HDFC Bank - Eva</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L28), "", L28), IF(ISBLANK(M28), "", (";"&amp;M28)), IF(ISBLANK(N28), "", (";"&amp;N28)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -9843,7 +9843,7 @@
         <v>188</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Icici Bank - Ipal</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L29), "", L29), IF(ISBLANK(M29), "", (";"&amp;M29)), IF(ISBLANK(N29), "", (";"&amp;N29)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -9890,7 +9890,7 @@
         <v>194</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>State Bank of India - SIA</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L30), "", L30), IF(ISBLANK(M30), "", (";"&amp;M30)), IF(ISBLANK(N30), "", (";"&amp;N30)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
         <v>200</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Permanent TSB Bank - (Hypotheken-Antrags-Digitalisierung)</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -9964,7 +9964,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L31), "", L31), IF(ISBLANK(M31), "", (";"&amp;M31)), IF(ISBLANK(N31), "", (";"&amp;N31)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -9982,7 +9982,7 @@
         <v>207</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Islandsbanki - Frodi</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -10009,7 +10009,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L32), "", L32), IF(ISBLANK(M32), "", (";"&amp;M32)), IF(ISBLANK(N32), "", (";"&amp;N32)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -10027,7 +10027,7 @@
         <v>213</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Intesa Sanpaolo - Lisa</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -10054,7 +10054,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L33), "", L33), IF(ISBLANK(M33), "", (";"&amp;M33)), IF(ISBLANK(N33), "", (";"&amp;N33)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -10072,7 +10072,7 @@
         <v>220</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Mizuho Financial Group - ALPHA</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -10099,7 +10099,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L34), "", L34), IF(ISBLANK(M34), "", (";"&amp;M34)), IF(ISBLANK(N34), "", (";"&amp;N34)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
         <v>225</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Mizuho Financial Group - Compass</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -10144,7 +10144,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L35), "", L35), IF(ISBLANK(M35), "", (";"&amp;M35)), IF(ISBLANK(N35), "", (";"&amp;N35)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -10162,7 +10162,7 @@
         <v>230</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Mizuho Financial Group - AOR</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L36), "", L36), IF(ISBLANK(M36), "", (";"&amp;M36)), IF(ISBLANK(N36), "", (";"&amp;N36)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
         <v>235</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Mizuho Financial Group - (KI für Entwicklung)</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -10236,7 +10236,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="5"/>
       <c r="O37" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L37), "", L37), IF(ISBLANK(M37), "", (";"&amp;M37)), IF(ISBLANK(N37), "", (";"&amp;N37)))</f>
+        <f t="shared" si="0"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -10254,7 +10254,7 @@
         <v>243</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OCBC - OCBC AML</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -10281,7 +10281,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="5"/>
       <c r="O38" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L38), "", L38), IF(ISBLANK(M38), "", (";"&amp;M38)), IF(ISBLANK(N38), "", (";"&amp;N38)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -10299,7 +10299,7 @@
         <v>248</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Royal Bank of Canada - Aiden Arrival</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -10326,7 +10326,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L39), "", L39), IF(ISBLANK(M39), "", (";"&amp;M39)), IF(ISBLANK(N39), "", (";"&amp;N39)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
         <v>253</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Royal Bank of Canada - NOMI Budgets/Forecast</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L40), "", L40), IF(ISBLANK(M40), "", (";"&amp;M40)), IF(ISBLANK(N40), "", (";"&amp;N40)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L41), "", L41), IF(ISBLANK(M41), "", (";"&amp;M41)), IF(ISBLANK(N41), "", (";"&amp;N41)))</f>
+        <f t="shared" si="0"/>
         <v>Onboarding &amp; Legitimation;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -10438,7 +10438,7 @@
         <v>266</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ING - Inga/Marie/Bill</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -10465,7 +10465,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L42), "", L42), IF(ISBLANK(M42), "", (";"&amp;M42)), IF(ISBLANK(N42), "", (";"&amp;N42)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
         <v>268</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ING - Katana</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L43), "", L43), IF(ISBLANK(M43), "", (";"&amp;M43)), IF(ISBLANK(N43), "", (";"&amp;N43)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -10530,7 +10530,7 @@
         <v>274</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nedbank - Enbi (Kundenassistent Online-Banking)</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -10557,7 +10557,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L44), "", L44), IF(ISBLANK(M44), "", (";"&amp;M44)), IF(ISBLANK(N44), "", (";"&amp;N44)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -10575,7 +10575,7 @@
         <v>281</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DNG - AINO</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -10606,7 +10606,7 @@
         <v>59</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L45), "", L45), IF(ISBLANK(M45), "", (";"&amp;M45)), IF(ISBLANK(N45), "", (";"&amp;N45)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
         <v>287</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SEB - Aida</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L46), "", L46), IF(ISBLANK(M46), "", (";"&amp;M46)), IF(ISBLANK(N46), "", (";"&amp;N46)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
         <v>292</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Swedbank - Nina</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L47), "", L47), IF(ISBLANK(M47), "", (";"&amp;M47)), IF(ISBLANK(N47), "", (";"&amp;N47)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -10718,7 +10718,7 @@
         <v>296</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Swedbank - Pega</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -10745,7 +10745,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L48), "", L48), IF(ISBLANK(M48), "", (";"&amp;M48)), IF(ISBLANK(N48), "", (";"&amp;N48)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -10763,7 +10763,7 @@
         <v>303</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Crédit Suisse - Amelia</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -10790,7 +10790,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L49), "", L49), IF(ISBLANK(M49), "", (";"&amp;M49)), IF(ISBLANK(N49), "", (";"&amp;N49)))</f>
+        <f t="shared" si="0"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
         <v>309</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>UBS - ORCA-Direct</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -10835,7 +10835,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L50), "", L50), IF(ISBLANK(M50), "", (";"&amp;M50)), IF(ISBLANK(N50), "", (";"&amp;N50)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -10853,7 +10853,7 @@
         <v>316</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Singapur DBS Bank - DBS Intelligent Banking</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -10880,7 +10880,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L51), "", L51), IF(ISBLANK(M51), "", (";"&amp;M51)), IF(ISBLANK(N51), "", (";"&amp;N51)))</f>
+        <f t="shared" si="0"/>
         <v>Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -10898,7 +10898,7 @@
         <v>323</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Banco Sabadell - Atlas AI</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -10925,7 +10925,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L52), "", L52), IF(ISBLANK(M52), "", (";"&amp;M52)), IF(ISBLANK(N52), "", (";"&amp;N52)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -10943,7 +10943,7 @@
         <v>328</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BBVA - Blue</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -10970,7 +10970,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L53), "", L53), IF(ISBLANK(M53), "", (";"&amp;M53)), IF(ISBLANK(N53), "", (";"&amp;N53)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -10988,7 +10988,7 @@
         <v>333</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BBVA - Bconomy</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -11015,7 +11015,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L54), "", L54), IF(ISBLANK(M54), "", (";"&amp;M54)), IF(ISBLANK(N54), "", (";"&amp;N54)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -11033,7 +11033,7 @@
         <v>339</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CaixaBank - (Cross Selling Engine)</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -11060,7 +11060,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L55), "", L55), IF(ISBLANK(M55), "", (";"&amp;M55)), IF(ISBLANK(N55), "", (";"&amp;N55)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
         <v>1042</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CaixaBank - Noa (Spanisch), Neo (Englisch)</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L56), "", L56), IF(ISBLANK(M56), "", (";"&amp;M56)), IF(ISBLANK(N56), "", (";"&amp;N56)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -11125,7 +11125,7 @@
         <v>347</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CaixaBank - (Überziehungsbot)</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -11152,7 +11152,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L57), "", L57), IF(ISBLANK(M57), "", (";"&amp;M57)), IF(ISBLANK(N57), "", (";"&amp;N57)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -11170,7 +11170,7 @@
         <v>353</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Santander - Kairos</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -11197,7 +11197,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L58), "", L58), IF(ISBLANK(M58), "", (";"&amp;M58)), IF(ISBLANK(N58), "", (";"&amp;N58)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -11215,7 +11215,7 @@
         <v>360</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Bangkok Bank - TT01</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -11244,7 +11244,7 @@
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L59), "", L59), IF(ISBLANK(M59), "", (";"&amp;M59)), IF(ISBLANK(N59), "", (";"&amp;N59)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -11262,7 +11262,7 @@
         <v>366</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Garanti BBVA - UGI</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -11289,7 +11289,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L60), "", L60), IF(ISBLANK(M60), "", (";"&amp;M60)), IF(ISBLANK(N60), "", (";"&amp;N60)))</f>
+        <f t="shared" si="0"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
         <v>373</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Barclays - (Risikosimulationen)</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -11334,7 +11334,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L61), "", L61), IF(ISBLANK(M61), "", (";"&amp;M61)), IF(ISBLANK(N61), "", (";"&amp;N61)))</f>
+        <f t="shared" si="0"/>
         <v>Risikomanagement</v>
       </c>
     </row>
@@ -11352,7 +11352,7 @@
         <v>379</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Barclays - FreeSpeech (Stimmbiometrie Verifizierung)</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -11379,7 +11379,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L62), "", L62), IF(ISBLANK(M62), "", (";"&amp;M62)), IF(ISBLANK(N62), "", (";"&amp;N62)))</f>
+        <f t="shared" si="0"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -11397,7 +11397,7 @@
         <v>385</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HSBC - AI Markets (Finanzmarktanalysen)</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -11424,7 +11424,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L63), "", L63), IF(ISBLANK(M63), "", (";"&amp;M63)), IF(ISBLANK(N63), "", (";"&amp;N63)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -11442,7 +11442,7 @@
         <v>390</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HSBC - HSBC AI Global Tactical Index (Anlagestrategie)</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -11469,7 +11469,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L64), "", L64), IF(ISBLANK(M64), "", (";"&amp;M64)), IF(ISBLANK(N64), "", (";"&amp;N64)))</f>
+        <f t="shared" si="0"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -11512,7 +11512,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L65), "", L65), IF(ISBLANK(M65), "", (";"&amp;M65)), IF(ISBLANK(N65), "", (";"&amp;N65)))</f>
+        <f t="shared" si="0"/>
         <v>Risikomanagement</v>
       </c>
     </row>
@@ -11530,7 +11530,7 @@
         <v>401</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Lloyd's Banking Group - "the Rat" (Login-Verifikation)</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -11557,7 +11557,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L66), "", L66), IF(ISBLANK(M66), "", (";"&amp;M66)), IF(ISBLANK(N66), "", (";"&amp;N66)))</f>
+        <f t="shared" ref="O66:O129" si="2" xml:space="preserve"> CONCATENATE(IF(ISBLANK(L66), "", L66), IF(ISBLANK(M66), "", (";"&amp;M66)), IF(ISBLANK(N66), "", (";"&amp;N66)))</f>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -11575,7 +11575,7 @@
         <v>407</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" ref="E67:E128" si="1">C67 &amp; " - " &amp; D67</f>
+        <f t="shared" ref="E67:E128" si="3">C67 &amp; " - " &amp; D67</f>
         <v>NatWest - HooYu (Onboarding-Bot)</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L67), "", L67), IF(ISBLANK(M67), "", (";"&amp;M67)), IF(ISBLANK(N67), "", (";"&amp;N67)))</f>
+        <f t="shared" si="2"/>
         <v>Onboarding &amp; Legitimation;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
         <v>411</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NatWest - Cora (Kundenassistent mit Voice)</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -11649,7 +11649,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L68), "", L68), IF(ISBLANK(M68), "", (";"&amp;M68)), IF(ISBLANK(N68), "", (";"&amp;N68)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -11667,7 +11667,7 @@
         <v>418</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Bank of America - Erica (Voicebot Kundenassistent)</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -11694,7 +11694,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L69), "", L69), IF(ISBLANK(M69), "", (";"&amp;M69)), IF(ISBLANK(N69), "", (";"&amp;N69)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -11712,7 +11712,7 @@
         <v>423</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Bank of America - PRIAM (Predictive Intelligence Analytics Machine)</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L70), "", L70), IF(ISBLANK(M70), "", (";"&amp;M70)), IF(ISBLANK(N70), "", (";"&amp;N70)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -11786,7 +11786,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L71), "", L71), IF(ISBLANK(M71), "", (";"&amp;M71)), IF(ISBLANK(N71), "", (";"&amp;N71)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -11804,7 +11804,7 @@
         <v>434</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Capital One - (Applikations-Monitoring mit KI)</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -11831,7 +11831,7 @@
       <c r="M72" s="13"/>
       <c r="N72" s="5"/>
       <c r="O72" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L72), "", L72), IF(ISBLANK(M72), "", (";"&amp;M72)), IF(ISBLANK(N72), "", (";"&amp;N72)))</f>
+        <f t="shared" si="2"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -11849,7 +11849,7 @@
         <v>439</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Capital One - (Geldwäscheprävention)</v>
       </c>
       <c r="F73" s="2" t="s">
@@ -11876,7 +11876,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L73), "", L73), IF(ISBLANK(M73), "", (";"&amp;M73)), IF(ISBLANK(N73), "", (";"&amp;N73)))</f>
+        <f t="shared" si="2"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
         <v>445</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Capital One - VCN (Virtual Card Numbers)</v>
       </c>
       <c r="F74" s="2" t="s">
@@ -11925,7 +11925,7 @@
         <v>1065</v>
       </c>
       <c r="O74" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L74), "", L74), IF(ISBLANK(M74), "", (";"&amp;M74)), IF(ISBLANK(N74), "", (";"&amp;N74)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise;Betriebliche Steuerung;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -11943,7 +11943,7 @@
         <v>450</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Capital One - ENO</v>
       </c>
       <c r="F75" s="2" t="s">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="N75" s="5"/>
       <c r="O75" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L75), "", L75), IF(ISBLANK(M75), "", (";"&amp;M75)), IF(ISBLANK(N75), "", (";"&amp;N75)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -11990,7 +11990,7 @@
         <v>455</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Citibank - Feedzai</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -12017,7 +12017,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L76), "", L76), IF(ISBLANK(M76), "", (";"&amp;M76)), IF(ISBLANK(N76), "", (";"&amp;N76)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -12035,7 +12035,7 @@
         <v>461</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Citigroup - Citigroup Bot SG</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="N77" s="5"/>
       <c r="O77" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L77), "", L77), IF(ISBLANK(M77), "", (";"&amp;M77)), IF(ISBLANK(N77), "", (";"&amp;N77)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -12082,7 +12082,7 @@
         <v>465</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Citigroup - Citi Payment Outlier Detection</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -12109,7 +12109,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L78), "", L78), IF(ISBLANK(M78), "", (";"&amp;M78)), IF(ISBLANK(N78), "", (";"&amp;N78)))</f>
+        <f t="shared" si="2"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -12127,7 +12127,7 @@
         <v>470</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Citigroup - (Handelstransaktionsprüfung)</v>
       </c>
       <c r="F79" s="8" t="s">
@@ -12154,7 +12154,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L79), "", L79), IF(ISBLANK(M79), "", (";"&amp;M79)), IF(ISBLANK(N79), "", (";"&amp;N79)))</f>
+        <f t="shared" si="2"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -12172,7 +12172,7 @@
         <v>473</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Goldman Sachs - Marcus</v>
       </c>
       <c r="F80" s="2" t="s">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="N80" s="5"/>
       <c r="O80" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L80), "", L80), IF(ISBLANK(M80), "", (";"&amp;M80)), IF(ISBLANK(N80), "", (";"&amp;N80)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -12219,7 +12219,7 @@
         <v>478</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Goldman Sachs - Sigma X</v>
       </c>
       <c r="F81" s="8" t="s">
@@ -12246,7 +12246,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L81), "", L81), IF(ISBLANK(M81), "", (";"&amp;M81)), IF(ISBLANK(N81), "", (";"&amp;N81)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -12264,7 +12264,7 @@
         <v>66</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Greenhill &amp; Co. - Cognito Detect (IT-Sicherheit)</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -12291,7 +12291,7 @@
       <c r="M82" s="13"/>
       <c r="N82" s="5"/>
       <c r="O82" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L82), "", L82), IF(ISBLANK(M82), "", (";"&amp;M82)), IF(ISBLANK(N82), "", (";"&amp;N82)))</f>
+        <f t="shared" si="2"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -12309,7 +12309,7 @@
         <v>487</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>JPMorgan Chase - LOXM (Leveraged Operations and Execution Mechanism)</v>
       </c>
       <c r="F83" s="2" t="s">
@@ -12336,7 +12336,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L83), "", L83), IF(ISBLANK(M83), "", (";"&amp;M83)), IF(ISBLANK(N83), "", (";"&amp;N83)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -12354,7 +12354,7 @@
         <v>491</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>JPMorgan Chase - JPM Bot</v>
       </c>
       <c r="F84" s="2" t="s">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="N84" s="5"/>
       <c r="O84" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L84), "", L84), IF(ISBLANK(M84), "", (";"&amp;M84)), IF(ISBLANK(N84), "", (";"&amp;N84)))</f>
+        <f t="shared" si="2"/>
         <v>Marketing &amp; Vertrieb;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
         <v>278</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>JPMorgan Chase - Kasisto</v>
       </c>
       <c r="F85" s="8" t="s">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="N85" s="5"/>
       <c r="O85" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L85), "", L85), IF(ISBLANK(M85), "", (";"&amp;M85)), IF(ISBLANK(N85), "", (";"&amp;N85)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
         <v>499</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>KeyBank - Contact Center AI</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -12475,7 +12475,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L86), "", L86), IF(ISBLANK(M86), "", (";"&amp;M86)), IF(ISBLANK(N86), "", (";"&amp;N86)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
         <v>505</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Core Card - Railgun</v>
       </c>
       <c r="F87" s="2" t="s">
@@ -12524,7 +12524,7 @@
         <v>510</v>
       </c>
       <c r="O87" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L87), "", L87), IF(ISBLANK(M87), "", (";"&amp;M87)), IF(ISBLANK(N87), "", (";"&amp;N87)))</f>
+        <f t="shared" si="2"/>
         <v>Betriebliche Steuerung;IT &amp; IT-Sicherheit;Datenmanagement</v>
       </c>
     </row>
@@ -12542,7 +12542,7 @@
         <v>46</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" ref="E88:E89" si="2" xml:space="preserve"> "Projekt von " &amp; C88</f>
+        <f t="shared" ref="E88:E89" si="4" xml:space="preserve"> "Projekt von " &amp; C88</f>
         <v>Projekt von Morgan Stanley</v>
       </c>
       <c r="F88" s="2" t="s">
@@ -12573,7 +12573,7 @@
         <v>1685</v>
       </c>
       <c r="O88" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L88), "", L88), IF(ISBLANK(M88), "", (";"&amp;M88)), IF(ISBLANK(N88), "", (";"&amp;N88)))</f>
+        <f t="shared" si="2"/>
         <v>Marketing &amp; Vertrieb;Betriebliche Steuerung;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
         <v>46</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Projekt von Mr. Cooper Group</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -12618,7 +12618,7 @@
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L89), "", L89), IF(ISBLANK(M89), "", (";"&amp;M89)), IF(ISBLANK(N89), "", (";"&amp;N89)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -12636,7 +12636,7 @@
         <v>499</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OneUnited Bank - Contact Center AI</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -12663,7 +12663,7 @@
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L90), "", L90), IF(ISBLANK(M90), "", (";"&amp;M90)), IF(ISBLANK(N90), "", (";"&amp;N90)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -12708,7 +12708,7 @@
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L91), "", L91), IF(ISBLANK(M91), "", (";"&amp;M91)), IF(ISBLANK(N91), "", (";"&amp;N91)))</f>
+        <f t="shared" si="2"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -12726,7 +12726,7 @@
         <v>532</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>State Street - State Street Global Advisor</v>
       </c>
       <c r="F92" s="2" t="s">
@@ -12757,7 +12757,7 @@
         <v>1685</v>
       </c>
       <c r="O92" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L92), "", L92), IF(ISBLANK(M92), "", (";"&amp;M92)), IF(ISBLANK(N92), "", (";"&amp;N92)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise;Betriebliche Steuerung;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
         <v>1043</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>USAA - USAA Chatbot</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="N93" s="5"/>
       <c r="O93" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L93), "", L93), IF(ISBLANK(M93), "", (";"&amp;M93)), IF(ISBLANK(N93), "", (";"&amp;N93)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
         <v>541</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Wells Fargo - Fargo (Kundenassistent Onlinebanking)</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="N94" s="5"/>
       <c r="O94" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L94), "", L94), IF(ISBLANK(M94), "", (";"&amp;M94)), IF(ISBLANK(N94), "", (";"&amp;N94)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -12869,7 +12869,7 @@
         <v>545</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Wells Fargo - Customer Engagement Engine</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -12900,7 +12900,7 @@
         <v>1685</v>
       </c>
       <c r="O95" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L95), "", L95), IF(ISBLANK(M95), "", (";"&amp;M95)), IF(ISBLANK(N95), "", (";"&amp;N95)))</f>
+        <f t="shared" si="2"/>
         <v>Marketing &amp; Vertrieb;Betriebliche Steuerung;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -12918,7 +12918,7 @@
         <v>552</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Liv Emirates NBD - Olivia (Kontoinformationsdienst)</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -12945,7 +12945,7 @@
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L96), "", L96), IF(ISBLANK(M96), "", (";"&amp;M96)), IF(ISBLANK(N96), "", (";"&amp;N96)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -12990,7 +12990,7 @@
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L97), "", L97), IF(ISBLANK(M97), "", (";"&amp;M97)), IF(ISBLANK(N97), "", (";"&amp;N97)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -13008,7 +13008,7 @@
         <v>560</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>UniCredit - UniCredit Bot</v>
       </c>
       <c r="F98" s="2" t="s">
@@ -13035,7 +13035,7 @@
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L98), "", L98), IF(ISBLANK(M98), "", (";"&amp;M98)), IF(ISBLANK(N98), "", (";"&amp;N98)))</f>
+        <f t="shared" si="2"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -13053,7 +13053,7 @@
         <v>565</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>UniCredit - SynFinance</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -13080,7 +13080,7 @@
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L99), "", L99), IF(ISBLANK(M99), "", (";"&amp;M99)), IF(ISBLANK(N99), "", (";"&amp;N99)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
         <v>571</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>VR Bank - VRanzi</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -13125,7 +13125,7 @@
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L100), "", L100), IF(ISBLANK(M100), "", (";"&amp;M100)), IF(ISBLANK(N100), "", (";"&amp;N100)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -13143,7 +13143,7 @@
         <v>577</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes Bank - Yes Robot</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="N101" s="5"/>
       <c r="O101" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L101), "", L101), IF(ISBLANK(M101), "", (";"&amp;M101)), IF(ISBLANK(N101), "", (";"&amp;N101)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -13190,7 +13190,7 @@
         <v>583</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Axis Bank - Axis Aha!</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -13221,7 +13221,7 @@
         <v>59</v>
       </c>
       <c r="O102" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L102), "", L102), IF(ISBLANK(M102), "", (";"&amp;M102)), IF(ISBLANK(N102), "", (";"&amp;N102)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
         <v>589</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Kotak Mahinda Bank - Keya</v>
       </c>
       <c r="F103" s="8" t="s">
@@ -13266,7 +13266,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L103), "", L103), IF(ISBLANK(M103), "", (";"&amp;M103)), IF(ISBLANK(N103), "", (";"&amp;N103)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -13284,7 +13284,7 @@
         <v>594</v>
       </c>
       <c r="E104" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>City Union Bank - Lakshmi</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -13311,7 +13311,7 @@
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L104), "", L104), IF(ISBLANK(M104), "", (";"&amp;M104)), IF(ISBLANK(N104), "", (";"&amp;N104)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -13329,7 +13329,7 @@
         <v>599</v>
       </c>
       <c r="E105" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HDFC Bank - IRA</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -13356,7 +13356,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L105), "", L105), IF(ISBLANK(M105), "", (";"&amp;M105)), IF(ISBLANK(N105), "", (";"&amp;N105)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -13374,7 +13374,7 @@
         <v>605</v>
       </c>
       <c r="E106" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Canara Bank - Mitra
 Candi</v>
       </c>
@@ -13402,7 +13402,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L106), "", L106), IF(ISBLANK(M106), "", (";"&amp;M106)), IF(ISBLANK(N106), "", (";"&amp;N106)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -13420,7 +13420,7 @@
         <v>611</v>
       </c>
       <c r="E107" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>American Express - Amex Bot</v>
       </c>
       <c r="F107" s="2" t="s">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="N107" s="5"/>
       <c r="O107" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L107), "", L107), IF(ISBLANK(M107), "", (";"&amp;M107)), IF(ISBLANK(N107), "", (";"&amp;N107)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
         <v>616</v>
       </c>
       <c r="E108" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HSBC - Amy</v>
       </c>
       <c r="F108" s="2" t="s">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="N108" s="5"/>
       <c r="O108" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L108), "", L108), IF(ISBLANK(M108), "", (";"&amp;M108)), IF(ISBLANK(N108), "", (";"&amp;N108)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -13514,7 +13514,7 @@
         <v>621</v>
       </c>
       <c r="E109" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Deutsche Bank - Debbie</v>
       </c>
       <c r="F109" s="2" t="s">
@@ -13541,7 +13541,7 @@
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L109), "", L109), IF(ISBLANK(M109), "", (";"&amp;M109)), IF(ISBLANK(N109), "", (";"&amp;N109)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
         <v>627</v>
       </c>
       <c r="E110" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Commerzbank - Bene</v>
       </c>
       <c r="F110" s="2" t="s">
@@ -13590,7 +13590,7 @@
         <v>59</v>
       </c>
       <c r="O110" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L110), "", L110), IF(ISBLANK(M110), "", (";"&amp;M110)), IF(ISBLANK(N110), "", (";"&amp;N110)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -13608,7 +13608,7 @@
         <v>632</v>
       </c>
       <c r="E111" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Alpha Securities - Pluto</v>
       </c>
       <c r="F111" s="2" t="s">
@@ -13635,7 +13635,7 @@
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L111), "", L111), IF(ISBLANK(M111), "", (";"&amp;M111)), IF(ISBLANK(N111), "", (";"&amp;N111)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
         <v>639</v>
       </c>
       <c r="E112" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Bank of China - DeepFX</v>
       </c>
       <c r="F112" s="2" t="s">
@@ -13680,7 +13680,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L112), "", L112), IF(ISBLANK(M112), "", (";"&amp;M112)), IF(ISBLANK(N112), "", (";"&amp;N112)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -13698,7 +13698,7 @@
         <v>644</v>
       </c>
       <c r="E113" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Bank of America - High Radius</v>
       </c>
       <c r="F113" s="2" t="s">
@@ -13725,7 +13725,7 @@
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L113), "", L113), IF(ISBLANK(M113), "", (";"&amp;M113)), IF(ISBLANK(N113), "", (";"&amp;N113)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
         <v>650</v>
       </c>
       <c r="E114" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TD Bank - MySpend</v>
       </c>
       <c r="F114" s="2" t="s">
@@ -13770,7 +13770,7 @@
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L114), "", L114), IF(ISBLANK(M114), "", (";"&amp;M114)), IF(ISBLANK(N114), "", (";"&amp;N114)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -13788,7 +13788,7 @@
         <v>655</v>
       </c>
       <c r="E115" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TD Bank - Clari</v>
       </c>
       <c r="F115" s="2" t="s">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="N115" s="5"/>
       <c r="O115" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L115), "", L115), IF(ISBLANK(M115), "", (";"&amp;M115)), IF(ISBLANK(N115), "", (";"&amp;N115)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -13862,7 +13862,7 @@
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L116), "", L116), IF(ISBLANK(M116), "", (";"&amp;M116)), IF(ISBLANK(N116), "", (";"&amp;N116)))</f>
+        <f t="shared" si="2"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
         <v>662</v>
       </c>
       <c r="E117" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Deutsche Bank - Next Best Offer</v>
       </c>
       <c r="F117" s="2" t="s">
@@ -13907,7 +13907,7 @@
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L117), "", L117), IF(ISBLANK(M117), "", (";"&amp;M117)), IF(ISBLANK(N117), "", (";"&amp;N117)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -13925,7 +13925,7 @@
         <v>668</v>
       </c>
       <c r="E118" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Bank of Scotland - Cora</v>
       </c>
       <c r="F118" s="2" t="s">
@@ -13952,7 +13952,7 @@
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L118), "", L118), IF(ISBLANK(M118), "", (";"&amp;M118)), IF(ISBLANK(N118), "", (";"&amp;N118)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -13970,7 +13970,7 @@
         <v>674</v>
       </c>
       <c r="E119" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Ally Bank - Ally Assist</v>
       </c>
       <c r="F119" s="2" t="s">
@@ -13997,7 +13997,7 @@
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L119), "", L119), IF(ISBLANK(M119), "", (";"&amp;M119)), IF(ISBLANK(N119), "", (";"&amp;N119)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
         <v>679</v>
       </c>
       <c r="E120" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Trim - Trim</v>
       </c>
       <c r="F120" s="2" t="s">
@@ -14042,7 +14042,7 @@
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L120), "", L120), IF(ISBLANK(M120), "", (";"&amp;M120)), IF(ISBLANK(N120), "", (";"&amp;N120)))</f>
+        <f t="shared" si="2"/>
         <v>Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -14060,7 +14060,7 @@
         <v>685</v>
       </c>
       <c r="E121" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Lunar - Lendify</v>
       </c>
       <c r="F121" s="2" t="s">
@@ -14087,7 +14087,7 @@
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L121), "", L121), IF(ISBLANK(M121), "", (";"&amp;M121)), IF(ISBLANK(N121), "", (";"&amp;N121)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14105,7 +14105,7 @@
         <v>690</v>
       </c>
       <c r="E122" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Mizuho Financial Group - DyBM</v>
       </c>
       <c r="F122" s="2" t="s">
@@ -14132,7 +14132,7 @@
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L122), "", L122), IF(ISBLANK(M122), "", (";"&amp;M122)), IF(ISBLANK(N122), "", (";"&amp;N122)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14150,7 +14150,7 @@
         <v>695</v>
       </c>
       <c r="E123" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Danske Bank - Spiir</v>
       </c>
       <c r="F123" s="8" t="s">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="N123" s="5"/>
       <c r="O123" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L123), "", L123), IF(ISBLANK(M123), "", (";"&amp;M123)), IF(ISBLANK(N123), "", (";"&amp;N123)))</f>
+        <f t="shared" si="2"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -14197,7 +14197,7 @@
         <v>698</v>
       </c>
       <c r="E124" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BBVA - Valora View</v>
       </c>
       <c r="F124" s="2" t="s">
@@ -14224,7 +14224,7 @@
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L124), "", L124), IF(ISBLANK(M124), "", (";"&amp;M124)), IF(ISBLANK(N124), "", (";"&amp;N124)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14242,7 +14242,7 @@
         <v>704</v>
       </c>
       <c r="E125" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Truebill - Truebill</v>
       </c>
       <c r="F125" s="2" t="s">
@@ -14269,7 +14269,7 @@
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L125), "", L125), IF(ISBLANK(M125), "", (";"&amp;M125)), IF(ISBLANK(N125), "", (";"&amp;N125)))</f>
+        <f t="shared" si="2"/>
         <v>Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -14287,7 +14287,7 @@
         <v>709</v>
       </c>
       <c r="E126" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Deutsche Bank - ROBIN</v>
       </c>
       <c r="F126" s="2" t="s">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="N126" s="5"/>
       <c r="O126" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L126), "", L126), IF(ISBLANK(M126), "", (";"&amp;M126)), IF(ISBLANK(N126), "", (";"&amp;N126)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -14334,7 +14334,7 @@
         <v>715</v>
       </c>
       <c r="E127" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Vanguard - Vanguard Digital Advisor</v>
       </c>
       <c r="F127" s="2" t="s">
@@ -14361,7 +14361,7 @@
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L127), "", L127), IF(ISBLANK(M127), "", (";"&amp;M127)), IF(ISBLANK(N127), "", (";"&amp;N127)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14379,7 +14379,7 @@
         <v>720</v>
       </c>
       <c r="E128" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Merrill Lynch - Merrill Edge Guided Investing</v>
       </c>
       <c r="F128" s="2" t="s">
@@ -14406,7 +14406,7 @@
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L128), "", L128), IF(ISBLANK(M128), "", (";"&amp;M128)), IF(ISBLANK(N128), "", (";"&amp;N128)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14424,7 +14424,7 @@
         <v>725</v>
       </c>
       <c r="E129" s="2" t="str">
-        <f t="shared" ref="E129:E180" si="3">C129 &amp; " - " &amp; D129</f>
+        <f t="shared" ref="E129:E180" si="5">C129 &amp; " - " &amp; D129</f>
         <v>Charles Schwab &amp; Co. - Schwab Intelligent Portfolios</v>
       </c>
       <c r="F129" s="2" t="s">
@@ -14451,7 +14451,7 @@
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L129), "", L129), IF(ISBLANK(M129), "", (";"&amp;M129)), IF(ISBLANK(N129), "", (";"&amp;N129)))</f>
+        <f t="shared" si="2"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14496,7 +14496,7 @@
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L130), "", L130), IF(ISBLANK(M130), "", (";"&amp;M130)), IF(ISBLANK(N130), "", (";"&amp;N130)))</f>
+        <f t="shared" ref="O130:O193" si="6" xml:space="preserve"> CONCATENATE(IF(ISBLANK(L130), "", L130), IF(ISBLANK(M130), "", (";"&amp;M130)), IF(ISBLANK(N130), "", (";"&amp;N130)))</f>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14514,7 +14514,7 @@
         <v>733</v>
       </c>
       <c r="E131" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Black Rock - Future Advisor</v>
       </c>
       <c r="F131" s="2" t="s">
@@ -14541,7 +14541,7 @@
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L131), "", L131), IF(ISBLANK(M131), "", (";"&amp;M131)), IF(ISBLANK(N131), "", (";"&amp;N131)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14559,7 +14559,7 @@
         <v>736</v>
       </c>
       <c r="E132" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>HSBC - Sympricot</v>
       </c>
       <c r="F132" s="2" t="s">
@@ -14586,7 +14586,7 @@
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
       <c r="O132" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L132), "", L132), IF(ISBLANK(M132), "", (";"&amp;M132)), IF(ISBLANK(N132), "", (";"&amp;N132)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
         <v>741</v>
       </c>
       <c r="E133" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>JPMorgan Chase - COIN</v>
       </c>
       <c r="F133" s="2" t="s">
@@ -14631,7 +14631,7 @@
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
       <c r="O133" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L133), "", L133), IF(ISBLANK(M133), "", (";"&amp;M133)), IF(ISBLANK(N133), "", (";"&amp;N133)))</f>
+        <f t="shared" si="6"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
         <v>746</v>
       </c>
       <c r="E134" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>JPMorgan Chase - OmniAI</v>
       </c>
       <c r="F134" s="2" t="s">
@@ -14676,7 +14676,7 @@
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
       <c r="O134" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L134), "", L134), IF(ISBLANK(M134), "", (";"&amp;M134)), IF(ISBLANK(N134), "", (";"&amp;N134)))</f>
+        <f t="shared" si="6"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -14694,7 +14694,7 @@
         <v>751</v>
       </c>
       <c r="E135" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Capital One - Anomaly Detection</v>
       </c>
       <c r="F135" s="2" t="s">
@@ -14721,7 +14721,7 @@
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
       <c r="O135" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L135), "", L135), IF(ISBLANK(M135), "", (";"&amp;M135)), IF(ISBLANK(N135), "", (";"&amp;N135)))</f>
+        <f t="shared" si="6"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
         <v>756</v>
       </c>
       <c r="E136" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Barclays - Communications Intelligence Platform</v>
       </c>
       <c r="F136" s="8" t="s">
@@ -14766,7 +14766,7 @@
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
       <c r="O136" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L136), "", L136), IF(ISBLANK(M136), "", (";"&amp;M136)), IF(ISBLANK(N136), "", (";"&amp;N136)))</f>
+        <f t="shared" si="6"/>
         <v>Risikomanagement</v>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
         <v>757</v>
       </c>
       <c r="E137" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Barclays - Barclays Assistant</v>
       </c>
       <c r="F137" s="2" t="s">
@@ -14811,7 +14811,7 @@
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
       <c r="O137" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L137), "", L137), IF(ISBLANK(M137), "", (";"&amp;M137)), IF(ISBLANK(N137), "", (";"&amp;N137)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -14856,7 +14856,7 @@
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
       <c r="O138" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L138), "", L138), IF(ISBLANK(M138), "", (";"&amp;M138)), IF(ISBLANK(N138), "", (";"&amp;N138)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -14874,7 +14874,7 @@
         <v>767</v>
       </c>
       <c r="E139" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Standard Chartered - KAI Banking</v>
       </c>
       <c r="F139" s="2" t="s">
@@ -14901,7 +14901,7 @@
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
       <c r="O139" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L139), "", L139), IF(ISBLANK(M139), "", (";"&amp;M139)), IF(ISBLANK(N139), "", (";"&amp;N139)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -14919,7 +14919,7 @@
         <v>772</v>
       </c>
       <c r="E140" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Standard Chartered - Trade AI Engine</v>
       </c>
       <c r="F140" s="2" t="s">
@@ -14946,7 +14946,7 @@
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
       <c r="O140" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L140), "", L140), IF(ISBLANK(M140), "", (";"&amp;M140)), IF(ISBLANK(N140), "", (";"&amp;N140)))</f>
+        <f t="shared" si="6"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -14964,7 +14964,7 @@
         <v>777</v>
       </c>
       <c r="E141" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Standard Chartered - Straight2Bank</v>
       </c>
       <c r="F141" s="2" t="s">
@@ -14991,7 +14991,7 @@
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
       <c r="O141" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L141), "", L141), IF(ISBLANK(M141), "", (";"&amp;M141)), IF(ISBLANK(N141), "", (";"&amp;N141)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15009,7 +15009,7 @@
         <v>782</v>
       </c>
       <c r="E142" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Standard Chartered - Endeavor</v>
       </c>
       <c r="F142" s="2" t="s">
@@ -15036,7 +15036,7 @@
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
       <c r="O142" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L142), "", L142), IF(ISBLANK(M142), "", (";"&amp;M142)), IF(ISBLANK(N142), "", (";"&amp;N142)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -15054,7 +15054,7 @@
         <v>46</v>
       </c>
       <c r="E143" s="2" t="str">
-        <f t="shared" ref="E143" si="4" xml:space="preserve"> "Projekt von " &amp; C143</f>
+        <f t="shared" ref="E143" si="7" xml:space="preserve"> "Projekt von " &amp; C143</f>
         <v>Projekt von Standard Chartered</v>
       </c>
       <c r="F143" s="2" t="s">
@@ -15081,7 +15081,7 @@
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
       <c r="O143" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L143), "", L143), IF(ISBLANK(M143), "", (";"&amp;M143)), IF(ISBLANK(N143), "", (";"&amp;N143)))</f>
+        <f t="shared" si="6"/>
         <v>Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -15125,7 +15125,7 @@
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
       <c r="O144" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L144), "", L144), IF(ISBLANK(M144), "", (";"&amp;M144)), IF(ISBLANK(N144), "", (";"&amp;N144)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15143,7 +15143,7 @@
         <v>795</v>
       </c>
       <c r="E145" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Scotiabank - C.MEE</v>
       </c>
       <c r="F145" s="2" t="s">
@@ -15170,7 +15170,7 @@
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
       <c r="O145" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L145), "", L145), IF(ISBLANK(M145), "", (";"&amp;M145)), IF(ISBLANK(N145), "", (";"&amp;N145)))</f>
+        <f t="shared" si="6"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -15188,7 +15188,7 @@
         <v>800</v>
       </c>
       <c r="E146" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Scotiabank - Scotiabank Chatbot</v>
       </c>
       <c r="F146" s="8" t="s">
@@ -15215,7 +15215,7 @@
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
       <c r="O146" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L146), "", L146), IF(ISBLANK(M146), "", (";"&amp;M146)), IF(ISBLANK(N146), "", (";"&amp;N146)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
         <v>804</v>
       </c>
       <c r="E147" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Bank of Montreal - BMO Bolt</v>
       </c>
       <c r="F147" s="2" t="s">
@@ -15260,7 +15260,7 @@
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
       <c r="O147" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L147), "", L147), IF(ISBLANK(M147), "", (";"&amp;M147)), IF(ISBLANK(N147), "", (";"&amp;N147)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15278,7 +15278,7 @@
         <v>809</v>
       </c>
       <c r="E148" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Bank of Montreal - Insights</v>
       </c>
       <c r="F148" s="2" t="s">
@@ -15305,7 +15305,7 @@
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
       <c r="O148" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L148), "", L148), IF(ISBLANK(M148), "", (";"&amp;M148)), IF(ISBLANK(N148), "", (";"&amp;N148)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15323,7 +15323,7 @@
         <v>815</v>
       </c>
       <c r="E149" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Canadian Imperial Bank of Commerce - CIBC Virtual Assistant</v>
       </c>
       <c r="F149" s="2" t="s">
@@ -15350,7 +15350,7 @@
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
       <c r="O149" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L149), "", L149), IF(ISBLANK(M149), "", (";"&amp;M149)), IF(ISBLANK(N149), "", (";"&amp;N149)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15368,7 +15368,7 @@
         <v>820</v>
       </c>
       <c r="E150" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Canadian Imperial Bank of Commerce - CIBC Insights</v>
       </c>
       <c r="F150" s="2" t="s">
@@ -15395,7 +15395,7 @@
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
       <c r="O150" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L150), "", L150), IF(ISBLANK(M150), "", (";"&amp;M150)), IF(ISBLANK(N150), "", (";"&amp;N150)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
         <v>825</v>
       </c>
       <c r="E151" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>State Bank of India - YONO 2.0</v>
       </c>
       <c r="F151" s="2" t="s">
@@ -15440,7 +15440,7 @@
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
       <c r="O151" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L151), "", L151), IF(ISBLANK(M151), "", (";"&amp;M151)), IF(ISBLANK(N151), "", (";"&amp;N151)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15458,7 +15458,7 @@
         <v>831</v>
       </c>
       <c r="E152" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ICICI Bank - PayLater</v>
       </c>
       <c r="F152" s="2" t="s">
@@ -15485,7 +15485,7 @@
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
       <c r="O152" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L152), "", L152), IF(ISBLANK(M152), "", (";"&amp;M152)), IF(ISBLANK(N152), "", (";"&amp;N152)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
         <v>836</v>
       </c>
       <c r="E153" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>HDFC Bank - OnChat</v>
       </c>
       <c r="F153" s="2" t="s">
@@ -15530,7 +15530,7 @@
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
       <c r="O153" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L153), "", L153), IF(ISBLANK(M153), "", (";"&amp;M153)), IF(ISBLANK(N153), "", (";"&amp;N153)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15548,7 +15548,7 @@
         <v>841</v>
       </c>
       <c r="E154" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>HDFC Bank - Recruit Bot</v>
       </c>
       <c r="F154" s="2" t="s">
@@ -15575,7 +15575,7 @@
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
       <c r="O154" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L154), "", L154), IF(ISBLANK(M154), "", (";"&amp;M154)), IF(ISBLANK(N154), "", (";"&amp;N154)))</f>
+        <f t="shared" si="6"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -15593,7 +15593,7 @@
         <v>46</v>
       </c>
       <c r="E155" s="2" t="str">
-        <f t="shared" ref="E155:E157" si="5" xml:space="preserve"> "Projekt von " &amp; C155</f>
+        <f t="shared" ref="E155:E157" si="8" xml:space="preserve"> "Projekt von " &amp; C155</f>
         <v>Projekt von Commerzbank</v>
       </c>
       <c r="F155" s="8" t="s">
@@ -15620,7 +15620,7 @@
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
       <c r="O155" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L155), "", L155), IF(ISBLANK(M155), "", (";"&amp;M155)), IF(ISBLANK(N155), "", (";"&amp;N155)))</f>
+        <f t="shared" si="6"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -15664,7 +15664,7 @@
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
       <c r="O156" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L156), "", L156), IF(ISBLANK(M156), "", (";"&amp;M156)), IF(ISBLANK(N156), "", (";"&amp;N156)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
         <v>46</v>
       </c>
       <c r="E157" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Projekt von DBS</v>
       </c>
       <c r="F157" s="2" t="s">
@@ -15709,7 +15709,7 @@
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
       <c r="O157" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L157), "", L157), IF(ISBLANK(M157), "", (";"&amp;M157)), IF(ISBLANK(N157), "", (";"&amp;N157)))</f>
+        <f t="shared" si="6"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -15727,7 +15727,7 @@
         <v>854</v>
       </c>
       <c r="E158" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>DBS - Quick Finance</v>
       </c>
       <c r="F158" s="2" t="s">
@@ -15754,7 +15754,7 @@
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
       <c r="O158" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L158), "", L158), IF(ISBLANK(M158), "", (";"&amp;M158)), IF(ISBLANK(N158), "", (";"&amp;N158)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -15798,7 +15798,7 @@
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
       <c r="O159" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L159), "", L159), IF(ISBLANK(M159), "", (";"&amp;M159)), IF(ISBLANK(N159), "", (";"&amp;N159)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15816,7 +15816,7 @@
         <v>863</v>
       </c>
       <c r="E160" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Meriwest Credit Union - Scout</v>
       </c>
       <c r="F160" s="2" t="s">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="N160" s="5"/>
       <c r="O160" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L160), "", L160), IF(ISBLANK(M160), "", (";"&amp;M160)), IF(ISBLANK(N160), "", (";"&amp;N160)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
         <v>867</v>
       </c>
       <c r="E161" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>UBS - Cognitive Search</v>
       </c>
       <c r="F161" s="2" t="s">
@@ -15890,7 +15890,7 @@
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
       <c r="O161" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L161), "", L161), IF(ISBLANK(M161), "", (";"&amp;M161)), IF(ISBLANK(N161), "", (";"&amp;N161)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -15934,7 +15934,7 @@
       <c r="M162" s="5"/>
       <c r="N162" s="5"/>
       <c r="O162" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L162), "", L162), IF(ISBLANK(M162), "", (";"&amp;M162)), IF(ISBLANK(N162), "", (";"&amp;N162)))</f>
+        <f t="shared" si="6"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -15978,7 +15978,7 @@
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
       <c r="O163" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L163), "", L163), IF(ISBLANK(M163), "", (";"&amp;M163)), IF(ISBLANK(N163), "", (";"&amp;N163)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -15996,7 +15996,7 @@
         <v>879</v>
       </c>
       <c r="E164" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>BNP Paribas - NOA</v>
       </c>
       <c r="F164" s="2" t="s">
@@ -16023,7 +16023,7 @@
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
       <c r="O164" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L164), "", L164), IF(ISBLANK(M164), "", (";"&amp;M164)), IF(ISBLANK(N164), "", (";"&amp;N164)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -16067,7 +16067,7 @@
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
       <c r="O165" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L165), "", L165), IF(ISBLANK(M165), "", (";"&amp;M165)), IF(ISBLANK(N165), "", (";"&amp;N165)))</f>
+        <f t="shared" si="6"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -16115,7 +16115,7 @@
         <v>1682</v>
       </c>
       <c r="O166" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L166), "", L166), IF(ISBLANK(M166), "", (";"&amp;M166)), IF(ISBLANK(N166), "", (";"&amp;N166)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise;Datenmanagement;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -16133,7 +16133,7 @@
         <v>893</v>
       </c>
       <c r="E167" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>JPMorgan Chase - IndexGPT</v>
       </c>
       <c r="F167" s="2" t="s">
@@ -16164,7 +16164,7 @@
         <v>1684</v>
       </c>
       <c r="O167" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L167), "", L167), IF(ISBLANK(M167), "", (";"&amp;M167)), IF(ISBLANK(N167), "", (";"&amp;N167)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise;Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -16182,7 +16182,7 @@
         <v>899</v>
       </c>
       <c r="E168" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Virginia Credit Union - Q2 Partner Accelerator</v>
       </c>
       <c r="F168" s="2" t="s">
@@ -16213,7 +16213,7 @@
         <v>59</v>
       </c>
       <c r="O168" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L168), "", L168), IF(ISBLANK(M168), "", (";"&amp;M168)), IF(ISBLANK(N168), "", (";"&amp;N168)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise;Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -16231,7 +16231,7 @@
         <v>905</v>
       </c>
       <c r="E169" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>JPMorgan Payments - Trulioo Identity Document Verification</v>
       </c>
       <c r="F169" s="2" t="s">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="N169" s="5"/>
       <c r="O169" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L169), "", L169), IF(ISBLANK(M169), "", (";"&amp;M169)), IF(ISBLANK(N169), "", (";"&amp;N169)))</f>
+        <f t="shared" si="6"/>
         <v>Onboarding &amp; Legitimation;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -16278,7 +16278,7 @@
         <v>911</v>
       </c>
       <c r="E170" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Cleo - Cleo AI Assistant</v>
       </c>
       <c r="F170" s="2" t="s">
@@ -16305,7 +16305,7 @@
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
       <c r="O170" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L170), "", L170), IF(ISBLANK(M170), "", (";"&amp;M170)), IF(ISBLANK(N170), "", (";"&amp;N170)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -16323,7 +16323,7 @@
         <v>916</v>
       </c>
       <c r="E171" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Trade Ideas - Holly Neo</v>
       </c>
       <c r="F171" s="2" t="s">
@@ -16350,7 +16350,7 @@
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
       <c r="O171" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L171), "", L171), IF(ISBLANK(M171), "", (";"&amp;M171)), IF(ISBLANK(N171), "", (";"&amp;N171)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -16368,7 +16368,7 @@
         <v>921</v>
       </c>
       <c r="E172" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Bank of America - CashPro</v>
       </c>
       <c r="F172" s="2" t="s">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="N172" s="13"/>
       <c r="O172" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L172), "", L172), IF(ISBLANK(M172), "", (";"&amp;M172)), IF(ISBLANK(N172), "", (";"&amp;N172)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -16415,7 +16415,7 @@
         <v>926</v>
       </c>
       <c r="E173" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Bloomberg - BloombergGPT</v>
       </c>
       <c r="F173" s="8" t="s">
@@ -16446,7 +16446,7 @@
         <v>510</v>
       </c>
       <c r="O173" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L173), "", L173), IF(ISBLANK(M173), "", (";"&amp;M173)), IF(ISBLANK(N173), "", (";"&amp;N173)))</f>
+        <f t="shared" si="6"/>
         <v>Betriebliche Steuerung;IT &amp; IT-Sicherheit;Datenmanagement</v>
       </c>
     </row>
@@ -16464,7 +16464,7 @@
         <v>930</v>
       </c>
       <c r="E174" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ORNL Federal Credit Union - LuLu</v>
       </c>
       <c r="F174" s="8" t="s">
@@ -16493,7 +16493,7 @@
       </c>
       <c r="N174" s="5"/>
       <c r="O174" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L174), "", L174), IF(ISBLANK(M174), "", (";"&amp;M174)), IF(ISBLANK(N174), "", (";"&amp;N174)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise;Risikomanagement</v>
       </c>
     </row>
@@ -16511,7 +16511,7 @@
         <v>936</v>
       </c>
       <c r="E175" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Huntington - payVeuu</v>
       </c>
       <c r="F175" s="2" t="s">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="N175" s="5"/>
       <c r="O175" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L175), "", L175), IF(ISBLANK(M175), "", (";"&amp;M175)), IF(ISBLANK(N175), "", (";"&amp;N175)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -16558,7 +16558,7 @@
         <v>940</v>
       </c>
       <c r="E176" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Ally Bank - Ally.ai Platform</v>
       </c>
       <c r="F176" s="2" t="s">
@@ -16587,7 +16587,7 @@
       </c>
       <c r="N176" s="5"/>
       <c r="O176" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L176), "", L176), IF(ISBLANK(M176), "", (";"&amp;M176)), IF(ISBLANK(N176), "", (";"&amp;N176)))</f>
+        <f t="shared" si="6"/>
         <v>Marketing &amp; Vertrieb;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -16605,7 +16605,7 @@
         <v>945</v>
       </c>
       <c r="E177" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KeyBank - Data Analyst Co-Pilot</v>
       </c>
       <c r="F177" s="2" t="s">
@@ -16632,7 +16632,7 @@
       <c r="M177" s="5"/>
       <c r="N177" s="5"/>
       <c r="O177" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L177), "", L177), IF(ISBLANK(M177), "", (";"&amp;M177)), IF(ISBLANK(N177), "", (";"&amp;N177)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -16650,7 +16650,7 @@
         <v>950</v>
       </c>
       <c r="E178" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KeyBank - GitLab Doo</v>
       </c>
       <c r="F178" s="2" t="s">
@@ -16677,7 +16677,7 @@
       <c r="M178" s="5"/>
       <c r="N178" s="5"/>
       <c r="O178" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L178), "", L178), IF(ISBLANK(M178), "", (";"&amp;M178)), IF(ISBLANK(N178), "", (";"&amp;N178)))</f>
+        <f t="shared" si="6"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -16695,7 +16695,7 @@
         <v>955</v>
       </c>
       <c r="E179" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KeyBank - KeyPro</v>
       </c>
       <c r="F179" s="2" t="s">
@@ -16722,7 +16722,7 @@
       <c r="M179" s="5"/>
       <c r="N179" s="5"/>
       <c r="O179" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L179), "", L179), IF(ISBLANK(M179), "", (";"&amp;M179)), IF(ISBLANK(N179), "", (";"&amp;N179)))</f>
+        <f t="shared" si="6"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -16740,7 +16740,7 @@
         <v>962</v>
       </c>
       <c r="E180" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Zenith Bank - ZiVA</v>
       </c>
       <c r="F180" s="2" t="s">
@@ -16769,7 +16769,7 @@
       </c>
       <c r="N180" s="5"/>
       <c r="O180" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L180), "", L180), IF(ISBLANK(M180), "", (";"&amp;M180)), IF(ISBLANK(N180), "", (";"&amp;N180)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
         <v>46</v>
       </c>
       <c r="E181" s="2" t="str">
-        <f t="shared" ref="E181:E182" si="6" xml:space="preserve"> "Projekt von " &amp; C181</f>
+        <f t="shared" ref="E181:E182" si="9" xml:space="preserve"> "Projekt von " &amp; C181</f>
         <v>Projekt von First National Bank Zambia</v>
       </c>
       <c r="F181" s="2" t="s">
@@ -16818,7 +16818,7 @@
         <v>1685</v>
       </c>
       <c r="O181" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L181), "", L181), IF(ISBLANK(M181), "", (";"&amp;M181)), IF(ISBLANK(N181), "", (";"&amp;N181)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise;Marketing &amp; Vertrieb;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -16836,7 +16836,7 @@
         <v>46</v>
       </c>
       <c r="E182" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>Projekt von Standard Bank South Africa</v>
       </c>
       <c r="F182" s="8" t="s">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="N182" s="5"/>
       <c r="O182" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L182), "", L182), IF(ISBLANK(M182), "", (";"&amp;M182)), IF(ISBLANK(N182), "", (";"&amp;N182)))</f>
+        <f t="shared" si="6"/>
         <v>Risikomanagement;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -16912,7 +16912,7 @@
       </c>
       <c r="N183" s="5"/>
       <c r="O183" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L183), "", L183), IF(ISBLANK(M183), "", (";"&amp;M183)), IF(ISBLANK(N183), "", (";"&amp;N183)))</f>
+        <f t="shared" si="6"/>
         <v>Risikomanagement;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
         <v>1682</v>
       </c>
       <c r="O184" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L184), "", L184), IF(ISBLANK(M184), "", (";"&amp;M184)), IF(ISBLANK(N184), "", (";"&amp;N184)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service;Datenmanagement;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -16978,7 +16978,7 @@
         <v>981</v>
       </c>
       <c r="E185" s="2" t="str">
-        <f t="shared" ref="E185:E248" si="7">C185 &amp; " - " &amp; D185</f>
+        <f t="shared" ref="E185:E248" si="10">C185 &amp; " - " &amp; D185</f>
         <v>Scotiabank - Scotia Smart Investor</v>
       </c>
       <c r="F185" s="2" t="s">
@@ -17007,7 +17007,7 @@
       </c>
       <c r="N185" s="5"/>
       <c r="O185" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L185), "", L185), IF(ISBLANK(M185), "", (";"&amp;M185)), IF(ISBLANK(N185), "", (";"&amp;N185)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -17025,7 +17025,7 @@
         <v>986</v>
       </c>
       <c r="E186" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Bank of Montreal - OLI (Operational Loss Intelligence)</v>
       </c>
       <c r="F186" s="2" t="s">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="N186" s="5"/>
       <c r="O186" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L186), "", L186), IF(ISBLANK(M186), "", (";"&amp;M186)), IF(ISBLANK(N186), "", (";"&amp;N186)))</f>
+        <f t="shared" si="6"/>
         <v>Datenmanagement;Risikomanagement</v>
       </c>
     </row>
@@ -17072,7 +17072,7 @@
         <v>993</v>
       </c>
       <c r="E187" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Ecobank - Prêt Xpress</v>
       </c>
       <c r="F187" s="2" t="s">
@@ -17099,7 +17099,7 @@
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
       <c r="O187" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L187), "", L187), IF(ISBLANK(M187), "", (";"&amp;M187)), IF(ISBLANK(N187), "", (";"&amp;N187)))</f>
+        <f t="shared" si="6"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -17117,7 +17117,7 @@
         <v>998</v>
       </c>
       <c r="E188" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Nedbank - EVA (Electronic Virtual Assistant)</v>
       </c>
       <c r="F188" s="2" t="s">
@@ -17146,7 +17146,7 @@
       </c>
       <c r="N188" s="5"/>
       <c r="O188" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L188), "", L188), IF(ISBLANK(M188), "", (";"&amp;M188)), IF(ISBLANK(N188), "", (";"&amp;N188)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -17190,7 +17190,7 @@
       <c r="M189" s="5"/>
       <c r="N189" s="5"/>
       <c r="O189" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L189), "", L189), IF(ISBLANK(M189), "", (";"&amp;M189)), IF(ISBLANK(N189), "", (";"&amp;N189)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -17208,7 +17208,7 @@
         <v>1009</v>
       </c>
       <c r="E190" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Banco do Brasil - Maia</v>
       </c>
       <c r="F190" s="2" t="s">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="N190" s="5"/>
       <c r="O190" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L190), "", L190), IF(ISBLANK(M190), "", (";"&amp;M190)), IF(ISBLANK(N190), "", (";"&amp;N190)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service;Onboarding &amp; Legitimation</v>
       </c>
     </row>
@@ -17255,7 +17255,7 @@
         <v>1013</v>
       </c>
       <c r="E191" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Banco Bradesco - Watson</v>
       </c>
       <c r="F191" s="2" t="s">
@@ -17282,7 +17282,7 @@
       <c r="M191" s="5"/>
       <c r="N191" s="5"/>
       <c r="O191" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L191), "", L191), IF(ISBLANK(M191), "", (";"&amp;M191)), IF(ISBLANK(N191), "", (";"&amp;N191)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -17300,7 +17300,7 @@
         <v>1017</v>
       </c>
       <c r="E192" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Nubank - Precog</v>
       </c>
       <c r="F192" s="2" t="s">
@@ -17327,7 +17327,7 @@
       <c r="M192" s="5"/>
       <c r="N192" s="5"/>
       <c r="O192" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L192), "", L192), IF(ISBLANK(M192), "", (";"&amp;M192)), IF(ISBLANK(N192), "", (";"&amp;N192)))</f>
+        <f t="shared" si="6"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -17374,7 +17374,7 @@
       </c>
       <c r="N193" s="5"/>
       <c r="O193" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L193), "", L193), IF(ISBLANK(M193), "", (";"&amp;M193)), IF(ISBLANK(N193), "", (";"&amp;N193)))</f>
+        <f t="shared" si="6"/>
         <v>Onboarding &amp; Legitimation;Compliance</v>
       </c>
     </row>
@@ -17392,7 +17392,7 @@
         <v>1028</v>
       </c>
       <c r="E194" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Banco do Brasil - WhatsApp BB</v>
       </c>
       <c r="F194" s="2" t="s">
@@ -17421,7 +17421,7 @@
       </c>
       <c r="N194" s="5"/>
       <c r="O194" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L194), "", L194), IF(ISBLANK(M194), "", (";"&amp;M194)), IF(ISBLANK(N194), "", (";"&amp;N194)))</f>
+        <f t="shared" ref="O194:O257" si="11" xml:space="preserve"> CONCATENATE(IF(ISBLANK(L194), "", L194), IF(ISBLANK(M194), "", (";"&amp;M194)), IF(ISBLANK(N194), "", (";"&amp;N194)))</f>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -17439,7 +17439,7 @@
         <v>1052</v>
       </c>
       <c r="E195" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Bancolombia - ADA</v>
       </c>
       <c r="F195" s="8" t="s">
@@ -17470,7 +17470,7 @@
         <v>1685</v>
       </c>
       <c r="O195" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L195), "", L195), IF(ISBLANK(M195), "", (";"&amp;M195)), IF(ISBLANK(N195), "", (";"&amp;N195)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung;Datenmanagement;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -17488,7 +17488,7 @@
         <v>980</v>
       </c>
       <c r="E196" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Banco Davivienda - Dataiku</v>
       </c>
       <c r="F196" s="8" t="s">
@@ -17514,7 +17514,7 @@
       </c>
       <c r="M196" s="5"/>
       <c r="O196" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L196), "", L196), IF(ISBLANK(M196), "", (";"&amp;M196)), IF(ISBLANK(N196), "", (";"&amp;N196)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -17532,7 +17532,7 @@
         <v>1061</v>
       </c>
       <c r="E197" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Commonwealth Bank of Australia - CommBank Yello</v>
       </c>
       <c r="F197" s="11" t="s">
@@ -17560,7 +17560,7 @@
         <v>1685</v>
       </c>
       <c r="O197" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L197), "", L197), IF(ISBLANK(M197), "", (";"&amp;M197)), IF(ISBLANK(N197), "", (";"&amp;N197)))</f>
+        <f t="shared" si="11"/>
         <v>Marketing &amp; Vertrieb;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
         <v>1071</v>
       </c>
       <c r="E198" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Commonwealth Bank of Australia - AITD</v>
       </c>
       <c r="F198" s="11" t="s">
@@ -17603,7 +17603,7 @@
         <v>1682</v>
       </c>
       <c r="O198" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L198), "", L198), IF(ISBLANK(M198), "", (";"&amp;M198)), IF(ISBLANK(N198), "", (";"&amp;N198)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -17621,7 +17621,7 @@
         <v>1080</v>
       </c>
       <c r="E199" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Westpac - SaferPay</v>
       </c>
       <c r="F199" s="11" t="s">
@@ -17652,7 +17652,7 @@
         <v>1685</v>
       </c>
       <c r="O199" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L199), "", L199), IF(ISBLANK(M199), "", (";"&amp;M199)), IF(ISBLANK(N199), "", (";"&amp;N199)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung;IT &amp; IT-Sicherheit;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -17670,7 +17670,7 @@
         <v>1083</v>
       </c>
       <c r="E200" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>ANZ Banking Group - Z-GPT</v>
       </c>
       <c r="F200" s="11" t="s">
@@ -17695,7 +17695,7 @@
         <v>1682</v>
       </c>
       <c r="O200" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L200), "", L200), IF(ISBLANK(M200), "", (";"&amp;M200)), IF(ISBLANK(N200), "", (";"&amp;N200)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -17713,7 +17713,7 @@
         <v>1088</v>
       </c>
       <c r="E201" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Commonwealth Bank of Australia - Document AI</v>
       </c>
       <c r="F201" s="11" t="s">
@@ -17738,7 +17738,7 @@
         <v>510</v>
       </c>
       <c r="O201" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L201), "", L201), IF(ISBLANK(M201), "", (";"&amp;M201)), IF(ISBLANK(N201), "", (";"&amp;N201)))</f>
+        <f t="shared" si="11"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
         <v>1114</v>
       </c>
       <c r="E202" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>UOB - Auto-Save</v>
       </c>
       <c r="F202" s="11" t="s">
@@ -17778,7 +17778,7 @@
         <v>1684</v>
       </c>
       <c r="O202" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L202), "", L202), IF(ISBLANK(M202), "", (";"&amp;M202)), IF(ISBLANK(N202), "", (";"&amp;N202)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -17796,7 +17796,7 @@
         <v>1118</v>
       </c>
       <c r="E203" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>OCBC - OCBC ChatGPT</v>
       </c>
       <c r="F203" s="11" t="s">
@@ -17821,7 +17821,7 @@
         <v>1682</v>
       </c>
       <c r="O203" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L203), "", L203), IF(ISBLANK(M203), "", (";"&amp;M203)), IF(ISBLANK(N203), "", (";"&amp;N203)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -17839,7 +17839,7 @@
         <v>1913</v>
       </c>
       <c r="E204" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Bank of Georgia - Georgian Speech Technologies</v>
       </c>
       <c r="F204" s="11" t="s">
@@ -17864,7 +17864,7 @@
         <v>1685</v>
       </c>
       <c r="O204" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L204), "", L204), IF(ISBLANK(M204), "", (";"&amp;M204)), IF(ISBLANK(N204), "", (";"&amp;N204)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -17882,7 +17882,7 @@
         <v>1133</v>
       </c>
       <c r="E205" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>UOB - Microsoft 365 Copilot</v>
       </c>
       <c r="F205" s="11" t="s">
@@ -17907,7 +17907,7 @@
         <v>510</v>
       </c>
       <c r="O205" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L205), "", L205), IF(ISBLANK(M205), "", (";"&amp;M205)), IF(ISBLANK(N205), "", (";"&amp;N205)))</f>
+        <f t="shared" si="11"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -17925,7 +17925,7 @@
         <v>1138</v>
       </c>
       <c r="E206" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>OCBC - Wingman</v>
       </c>
       <c r="F206" s="11" t="s">
@@ -17950,7 +17950,7 @@
         <v>1065</v>
       </c>
       <c r="O206" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L206), "", L206), IF(ISBLANK(M206), "", (";"&amp;M206)), IF(ISBLANK(N206), "", (";"&amp;N206)))</f>
+        <f t="shared" si="11"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -17968,7 +17968,7 @@
         <v>1142</v>
       </c>
       <c r="E207" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>OCBC - Whisper</v>
       </c>
       <c r="F207" s="11" t="s">
@@ -17993,7 +17993,7 @@
         <v>1682</v>
       </c>
       <c r="O207" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L207), "", L207), IF(ISBLANK(M207), "", (";"&amp;M207)), IF(ISBLANK(N207), "", (";"&amp;N207)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -18011,7 +18011,7 @@
         <v>1146</v>
       </c>
       <c r="E208" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>OCBC - Buddy</v>
       </c>
       <c r="F208" s="11" t="s">
@@ -18036,7 +18036,7 @@
         <v>1682</v>
       </c>
       <c r="O208" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L208), "", L208), IF(ISBLANK(M208), "", (";"&amp;M208)), IF(ISBLANK(N208), "", (";"&amp;N208)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -18054,7 +18054,7 @@
         <v>1088</v>
       </c>
       <c r="E209" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>OCBC - Document AI</v>
       </c>
       <c r="F209" s="11" t="s">
@@ -18079,7 +18079,7 @@
         <v>1682</v>
       </c>
       <c r="O209" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L209), "", L209), IF(ISBLANK(M209), "", (";"&amp;M209)), IF(ISBLANK(N209), "", (";"&amp;N209)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -18097,7 +18097,7 @@
         <v>1157</v>
       </c>
       <c r="E210" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>NatWest - Marge</v>
       </c>
       <c r="F210" s="11" t="s">
@@ -18125,7 +18125,7 @@
         <v>1685</v>
       </c>
       <c r="O210" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L210), "", L210), IF(ISBLANK(M210), "", (";"&amp;M210)), IF(ISBLANK(N210), "", (";"&amp;N210)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18164,7 +18164,7 @@
         <v>1685</v>
       </c>
       <c r="O211" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L211), "", L211), IF(ISBLANK(M211), "", (";"&amp;M211)), IF(ISBLANK(N211), "", (";"&amp;N211)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
         <v>1682</v>
       </c>
       <c r="O212" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L212), "", L212), IF(ISBLANK(M212), "", (";"&amp;M212)), IF(ISBLANK(N212), "", (";"&amp;N212)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -18242,7 +18242,7 @@
         <v>1685</v>
       </c>
       <c r="O213" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L213), "", L213), IF(ISBLANK(M213), "", (";"&amp;M213)), IF(ISBLANK(N213), "", (";"&amp;N213)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18260,7 +18260,7 @@
         <v>1180</v>
       </c>
       <c r="E214" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Erste Bank - Financial Health Prototype</v>
       </c>
       <c r="F214" s="11" t="s">
@@ -18285,7 +18285,7 @@
         <v>1685</v>
       </c>
       <c r="O214" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L214), "", L214), IF(ISBLANK(M214), "", (";"&amp;M214)), IF(ISBLANK(N214), "", (";"&amp;N214)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18303,7 +18303,7 @@
         <v>1184</v>
       </c>
       <c r="E215" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>HSBC - Anti Money Laundering AI</v>
       </c>
       <c r="F215" s="11" t="s">
@@ -18328,7 +18328,7 @@
         <v>1682</v>
       </c>
       <c r="O215" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L215), "", L215), IF(ISBLANK(M215), "", (";"&amp;M215)), IF(ISBLANK(N215), "", (";"&amp;N215)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -18346,7 +18346,7 @@
         <v>1190</v>
       </c>
       <c r="E216" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Sberbank - GigaChat</v>
       </c>
       <c r="F216" s="11" t="s">
@@ -18371,7 +18371,7 @@
         <v>1685</v>
       </c>
       <c r="O216" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L216), "", L216), IF(ISBLANK(M216), "", (";"&amp;M216)), IF(ISBLANK(N216), "", (";"&amp;N216)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18389,7 +18389,7 @@
         <v>1196</v>
       </c>
       <c r="E217" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>bunq - Finn</v>
       </c>
       <c r="F217" s="11" t="s">
@@ -18414,7 +18414,7 @@
         <v>1685</v>
       </c>
       <c r="O217" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L217), "", L217), IF(ISBLANK(M217), "", (";"&amp;M217)), IF(ISBLANK(N217), "", (";"&amp;N217)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18453,7 +18453,7 @@
         <v>1685</v>
       </c>
       <c r="O218" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L218), "", L218), IF(ISBLANK(M218), "", (";"&amp;M218)), IF(ISBLANK(N218), "", (";"&amp;N218)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18471,7 +18471,7 @@
         <v>1204</v>
       </c>
       <c r="E219" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Commerzbank - Banking Avatar</v>
       </c>
       <c r="F219" s="11" t="s">
@@ -18496,7 +18496,7 @@
         <v>1685</v>
       </c>
       <c r="O219" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L219), "", L219), IF(ISBLANK(M219), "", (";"&amp;M219)), IF(ISBLANK(N219), "", (";"&amp;N219)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18538,7 +18538,7 @@
         <v>1065</v>
       </c>
       <c r="O220" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L220), "", L220), IF(ISBLANK(M220), "", (";"&amp;M220)), IF(ISBLANK(N220), "", (";"&amp;N220)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -18556,7 +18556,7 @@
         <v>1215</v>
       </c>
       <c r="E221" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Crédit Agricole Bank Polska - ROC3</v>
       </c>
       <c r="F221" s="11" t="s">
@@ -18581,7 +18581,7 @@
         <v>1685</v>
       </c>
       <c r="O221" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L221), "", L221), IF(ISBLANK(M221), "", (";"&amp;M221)), IF(ISBLANK(N221), "", (";"&amp;N221)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18599,7 +18599,7 @@
         <v>1222</v>
       </c>
       <c r="E222" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>JPMorgan Chase - Moneyball</v>
       </c>
       <c r="F222" s="11" t="s">
@@ -18624,7 +18624,7 @@
         <v>1684</v>
       </c>
       <c r="O222" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L222), "", L222), IF(ISBLANK(M222), "", (";"&amp;M222)), IF(ISBLANK(N222), "", (";"&amp;N222)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -18642,7 +18642,7 @@
         <v>1228</v>
       </c>
       <c r="E223" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Hokuhoku Financial Group - Fujitsu Kozuchi</v>
       </c>
       <c r="F223" s="11" t="s">
@@ -18670,7 +18670,7 @@
         <v>1065</v>
       </c>
       <c r="O223" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L223), "", L223), IF(ISBLANK(M223), "", (";"&amp;M223)), IF(ISBLANK(N223), "", (";"&amp;N223)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
         <v>1233</v>
       </c>
       <c r="E224" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Hana Bank - Hana OneQ</v>
       </c>
       <c r="F224" s="11" t="s">
@@ -18713,7 +18713,7 @@
         <v>1685</v>
       </c>
       <c r="O224" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L224), "", L224), IF(ISBLANK(M224), "", (";"&amp;M224)), IF(ISBLANK(N224), "", (";"&amp;N224)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18731,7 +18731,7 @@
         <v>1240</v>
       </c>
       <c r="E225" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Kookmin Bank - AI Banker</v>
       </c>
       <c r="F225" s="11" t="s">
@@ -18756,7 +18756,7 @@
         <v>1685</v>
       </c>
       <c r="O225" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L225), "", L225), IF(ISBLANK(M225), "", (";"&amp;M225)), IF(ISBLANK(N225), "", (";"&amp;N225)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18795,7 +18795,7 @@
         <v>1685</v>
       </c>
       <c r="O226" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L226), "", L226), IF(ISBLANK(M226), "", (";"&amp;M226)), IF(ISBLANK(N226), "", (";"&amp;N226)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18813,7 +18813,7 @@
         <v>1249</v>
       </c>
       <c r="E227" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Shinhan Bank - Banking for Everyone</v>
       </c>
       <c r="F227" s="11" t="s">
@@ -18838,7 +18838,7 @@
         <v>1685</v>
       </c>
       <c r="O227" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L227), "", L227), IF(ISBLANK(M227), "", (";"&amp;M227)), IF(ISBLANK(N227), "", (";"&amp;N227)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18877,7 +18877,7 @@
         <v>1685</v>
       </c>
       <c r="O228" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L228), "", L228), IF(ISBLANK(M228), "", (";"&amp;M228)), IF(ISBLANK(N228), "", (";"&amp;N228)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18895,7 +18895,7 @@
         <v>1259</v>
       </c>
       <c r="E229" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Hana Bank - HAI 2.0</v>
       </c>
       <c r="F229" s="11" t="s">
@@ -18920,7 +18920,7 @@
         <v>1685</v>
       </c>
       <c r="O229" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L229), "", L229), IF(ISBLANK(M229), "", (";"&amp;M229)), IF(ISBLANK(N229), "", (";"&amp;N229)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -18938,7 +18938,7 @@
         <v>1261</v>
       </c>
       <c r="E230" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Shinhan Bank - AI Concierge</v>
       </c>
       <c r="F230" s="11" t="s">
@@ -18963,7 +18963,7 @@
         <v>1685</v>
       </c>
       <c r="O230" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L230), "", L230), IF(ISBLANK(M230), "", (";"&amp;M230)), IF(ISBLANK(N230), "", (";"&amp;N230)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -19002,7 +19002,7 @@
         <v>1682</v>
       </c>
       <c r="O231" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L231), "", L231), IF(ISBLANK(M231), "", (";"&amp;M231)), IF(ISBLANK(N231), "", (";"&amp;N231)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -19044,7 +19044,7 @@
         <v>1685</v>
       </c>
       <c r="O232" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L232), "", L232), IF(ISBLANK(M232), "", (";"&amp;M232)), IF(ISBLANK(N232), "", (";"&amp;N232)))</f>
+        <f t="shared" si="11"/>
         <v>Risikomanagement;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -19084,7 +19084,7 @@
         <v>1682</v>
       </c>
       <c r="O233" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L233), "", L233), IF(ISBLANK(M233), "", (";"&amp;M233)), IF(ISBLANK(N233), "", (";"&amp;N233)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -19123,7 +19123,7 @@
         <v>1685</v>
       </c>
       <c r="O234" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L234), "", L234), IF(ISBLANK(M234), "", (";"&amp;M234)), IF(ISBLANK(N234), "", (";"&amp;N234)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -19165,7 +19165,7 @@
         <v>1682</v>
       </c>
       <c r="O235" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L235), "", L235), IF(ISBLANK(M235), "", (";"&amp;M235)), IF(ISBLANK(N235), "", (";"&amp;N235)))</f>
+        <f t="shared" si="11"/>
         <v>Risikomanagement;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -19204,7 +19204,7 @@
         <v>1684</v>
       </c>
       <c r="O236" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L236), "", L236), IF(ISBLANK(M236), "", (";"&amp;M236)), IF(ISBLANK(N236), "", (";"&amp;N236)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -19222,7 +19222,7 @@
         <v>1300</v>
       </c>
       <c r="E237" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Banco de Portugal - ALYA</v>
       </c>
       <c r="F237" s="11" t="s">
@@ -19249,7 +19249,7 @@
       <c r="M237" s="11"/>
       <c r="N237" s="11"/>
       <c r="O237" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L237), "", L237), IF(ISBLANK(M237), "", (";"&amp;M237)), IF(ISBLANK(N237), "", (";"&amp;N237)))</f>
+        <f t="shared" si="11"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -19267,7 +19267,7 @@
         <v>1303</v>
       </c>
       <c r="E238" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Permanent TSB Bank - PTSB Protect</v>
       </c>
       <c r="F238" s="11" t="s">
@@ -19292,7 +19292,7 @@
         <v>1684</v>
       </c>
       <c r="O238" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L238), "", L238), IF(ISBLANK(M238), "", (";"&amp;M238)), IF(ISBLANK(N238), "", (";"&amp;N238)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -19310,7 +19310,7 @@
         <v>1310</v>
       </c>
       <c r="E239" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>DBS Bank - CSO Assistant</v>
       </c>
       <c r="F239" s="11" t="s">
@@ -19341,7 +19341,7 @@
         <v>1684</v>
       </c>
       <c r="O239" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L239), "", L239), IF(ISBLANK(M239), "", (";"&amp;M239)), IF(ISBLANK(N239), "", (";"&amp;N239)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -19359,7 +19359,7 @@
         <v>1317</v>
       </c>
       <c r="E240" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Bank Negara Malaysia - National Fraud Portal</v>
       </c>
       <c r="F240" s="11" t="s">
@@ -19386,7 +19386,7 @@
       <c r="M240" s="11"/>
       <c r="N240" s="11"/>
       <c r="O240" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L240), "", L240), IF(ISBLANK(M240), "", (";"&amp;M240)), IF(ISBLANK(N240), "", (";"&amp;N240)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -19404,7 +19404,7 @@
         <v>1323</v>
       </c>
       <c r="E241" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>MyBank - Cuckoo System</v>
       </c>
       <c r="F241" s="11" t="s">
@@ -19429,7 +19429,7 @@
         <v>1684</v>
       </c>
       <c r="O241" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L241), "", L241), IF(ISBLANK(M241), "", (";"&amp;M241)), IF(ISBLANK(N241), "", (";"&amp;N241)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -19447,7 +19447,7 @@
         <v>1329</v>
       </c>
       <c r="E242" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>AmBank - Voice AI</v>
       </c>
       <c r="F242" s="11" t="s">
@@ -19475,7 +19475,7 @@
         <v>1684</v>
       </c>
       <c r="O242" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L242), "", L242), IF(ISBLANK(M242), "", (";"&amp;M242)), IF(ISBLANK(N242), "", (";"&amp;N242)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -19516,7 +19516,7 @@
       <c r="M243" s="11"/>
       <c r="N243" s="11"/>
       <c r="O243" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L243), "", L243), IF(ISBLANK(M243), "", (";"&amp;M243)), IF(ISBLANK(N243), "", (";"&amp;N243)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -19534,7 +19534,7 @@
         <v>1341</v>
       </c>
       <c r="E244" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>OCBC Securities - A.I. Oscar</v>
       </c>
       <c r="F244" s="11" t="s">
@@ -19560,7 +19560,7 @@
       </c>
       <c r="M244" s="11"/>
       <c r="O244" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L244), "", L244), IF(ISBLANK(M244), "", (";"&amp;M244)), IF(ISBLANK(N244), "", (";"&amp;N244)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -19602,7 +19602,7 @@
         <v>378</v>
       </c>
       <c r="O245" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L245), "", L245), IF(ISBLANK(M245), "", (";"&amp;M245)), IF(ISBLANK(N245), "", (";"&amp;N245)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service;Risikomanagement</v>
       </c>
     </row>
@@ -19620,7 +19620,7 @@
         <v>1353</v>
       </c>
       <c r="E246" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>IBPO Group Berhad - ANIKA</v>
       </c>
       <c r="F246" s="11" t="s">
@@ -19648,7 +19648,7 @@
         <v>1685</v>
       </c>
       <c r="O246" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L246), "", L246), IF(ISBLANK(M246), "", (";"&amp;M246)), IF(ISBLANK(N246), "", (";"&amp;N246)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -19666,7 +19666,7 @@
         <v>1359</v>
       </c>
       <c r="E247" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Rakbank - GPT-4o</v>
       </c>
       <c r="F247" s="11" t="s">
@@ -19697,7 +19697,7 @@
         <v>1685</v>
       </c>
       <c r="O247" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L247), "", L247), IF(ISBLANK(M247), "", (";"&amp;M247)), IF(ISBLANK(N247), "", (";"&amp;N247)))</f>
+        <f t="shared" si="11"/>
         <v>Betriebliche Steuerung;Marketing &amp; Vertrieb;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -19715,7 +19715,7 @@
         <v>1365</v>
       </c>
       <c r="E248" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Bank of Baroda - Aditi</v>
       </c>
       <c r="F248" s="11" t="s">
@@ -19743,7 +19743,7 @@
         <v>1684</v>
       </c>
       <c r="O248" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L248), "", L248), IF(ISBLANK(M248), "", (";"&amp;M248)), IF(ISBLANK(N248), "", (";"&amp;N248)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -19761,7 +19761,7 @@
         <v>1369</v>
       </c>
       <c r="E249" s="2" t="str">
-        <f t="shared" ref="E249:E295" si="8">C249 &amp; " - " &amp; D249</f>
+        <f t="shared" ref="E249:E295" si="12">C249 &amp; " - " &amp; D249</f>
         <v>Bank of Baroda - GyanSahay.AI</v>
       </c>
       <c r="F249" s="11" t="s">
@@ -19786,7 +19786,7 @@
         <v>1685</v>
       </c>
       <c r="O249" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L249), "", L249), IF(ISBLANK(M249), "", (";"&amp;M249)), IF(ISBLANK(N249), "", (";"&amp;N249)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -19804,7 +19804,7 @@
         <v>1375</v>
       </c>
       <c r="E250" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Sumitomo Mitsui Banking Corporation - SMBC-GAI</v>
       </c>
       <c r="F250" s="11" t="s">
@@ -19832,7 +19832,7 @@
         <v>1685</v>
       </c>
       <c r="O250" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L250), "", L250), IF(ISBLANK(M250), "", (";"&amp;M250)), IF(ISBLANK(N250), "", (";"&amp;N250)))</f>
+        <f t="shared" si="11"/>
         <v>Datenmanagement;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="M251" s="11"/>
       <c r="O251" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L251), "", L251), IF(ISBLANK(M251), "", (";"&amp;M251)), IF(ISBLANK(N251), "", (";"&amp;N251)))</f>
+        <f t="shared" si="11"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -19891,7 +19891,7 @@
         <v>1384</v>
       </c>
       <c r="E252" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>ABN Amro - TradeSpeed</v>
       </c>
       <c r="F252" s="11" t="s">
@@ -19916,7 +19916,7 @@
         <v>1684</v>
       </c>
       <c r="O252" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L252), "", L252), IF(ISBLANK(M252), "", (";"&amp;M252)), IF(ISBLANK(N252), "", (";"&amp;N252)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -19959,7 +19959,7 @@
       </c>
       <c r="N253" s="11"/>
       <c r="O253" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L253), "", L253), IF(ISBLANK(M253), "", (";"&amp;M253)), IF(ISBLANK(N253), "", (";"&amp;N253)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise;Risikomanagement</v>
       </c>
     </row>
@@ -19998,7 +19998,7 @@
         <v>59</v>
       </c>
       <c r="O254" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L254), "", L254), IF(ISBLANK(M254), "", (";"&amp;M254)), IF(ISBLANK(N254), "", (";"&amp;N254)))</f>
+        <f t="shared" si="11"/>
         <v>Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -20040,7 +20040,7 @@
         <v>378</v>
       </c>
       <c r="O255" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L255), "", L255), IF(ISBLANK(M255), "", (";"&amp;M255)), IF(ISBLANK(N255), "", (";"&amp;N255)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise;Risikomanagement</v>
       </c>
     </row>
@@ -20080,7 +20080,7 @@
       </c>
       <c r="M256" s="11"/>
       <c r="O256" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L256), "", L256), IF(ISBLANK(M256), "", (";"&amp;M256)), IF(ISBLANK(N256), "", (";"&amp;N256)))</f>
+        <f t="shared" si="11"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -20098,7 +20098,7 @@
         <v>1410</v>
       </c>
       <c r="E257" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>BTV Bank für Tirol und Vorarlberg - DaVinci</v>
       </c>
       <c r="F257" s="11" t="s">
@@ -20125,7 +20125,7 @@
       <c r="M257" s="11"/>
       <c r="N257" s="11"/>
       <c r="O257" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L257), "", L257), IF(ISBLANK(M257), "", (";"&amp;M257)), IF(ISBLANK(N257), "", (";"&amp;N257)))</f>
+        <f t="shared" si="11"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -20143,7 +20143,7 @@
         <v>1417</v>
       </c>
       <c r="E258" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Swedbank - ACI Fraud Management</v>
       </c>
       <c r="F258" s="11" t="s">
@@ -20170,7 +20170,7 @@
       <c r="M258" s="11"/>
       <c r="N258" s="11"/>
       <c r="O258" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L258), "", L258), IF(ISBLANK(M258), "", (";"&amp;M258)), IF(ISBLANK(N258), "", (";"&amp;N258)))</f>
+        <f t="shared" ref="O258:O321" si="13" xml:space="preserve"> CONCATENATE(IF(ISBLANK(L258), "", L258), IF(ISBLANK(M258), "", (";"&amp;M258)), IF(ISBLANK(N258), "", (";"&amp;N258)))</f>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -20188,7 +20188,7 @@
         <v>1421</v>
       </c>
       <c r="E259" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>OP Financial Group - My Financial Balance</v>
       </c>
       <c r="F259" s="11" t="s">
@@ -20213,7 +20213,7 @@
         <v>1685</v>
       </c>
       <c r="O259" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L259), "", L259), IF(ISBLANK(M259), "", (";"&amp;M259)), IF(ISBLANK(N259), "", (";"&amp;N259)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -20231,7 +20231,7 @@
         <v>1427</v>
       </c>
       <c r="E260" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>S-Pankki - Customer Insights AI</v>
       </c>
       <c r="F260" s="11" t="s">
@@ -20260,7 +20260,7 @@
       </c>
       <c r="N260" s="11"/>
       <c r="O260" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L260), "", L260), IF(ISBLANK(M260), "", (";"&amp;M260)), IF(ISBLANK(N260), "", (";"&amp;N260)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -20300,7 +20300,7 @@
       </c>
       <c r="M261" s="11"/>
       <c r="O261" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L261), "", L261), IF(ISBLANK(M261), "", (";"&amp;M261)), IF(ISBLANK(N261), "", (";"&amp;N261)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -20318,7 +20318,7 @@
         <v>1439</v>
       </c>
       <c r="E262" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Jyske Bank - Jyske Bank Chatbot</v>
       </c>
       <c r="F262" s="11" t="s">
@@ -20345,7 +20345,7 @@
       <c r="M262" s="11"/>
       <c r="N262" s="11"/>
       <c r="O262" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L262), "", L262), IF(ISBLANK(M262), "", (";"&amp;M262)), IF(ISBLANK(N262), "", (";"&amp;N262)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -20363,7 +20363,7 @@
         <v>455</v>
       </c>
       <c r="E263" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>N26 - Feedzai</v>
       </c>
       <c r="F263" s="11" t="s">
@@ -20390,7 +20390,7 @@
       <c r="M263" s="11"/>
       <c r="N263" s="11"/>
       <c r="O263" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L263), "", L263), IF(ISBLANK(M263), "", (";"&amp;M263)), IF(ISBLANK(N263), "", (";"&amp;N263)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -20408,7 +20408,7 @@
         <v>1449</v>
       </c>
       <c r="E264" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>N26 - Upvest</v>
       </c>
       <c r="F264" s="11" t="s">
@@ -20437,7 +20437,7 @@
       </c>
       <c r="N264" s="11"/>
       <c r="O264" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L264), "", L264), IF(ISBLANK(M264), "", (";"&amp;M264)), IF(ISBLANK(N264), "", (";"&amp;N264)))</f>
+        <f t="shared" si="13"/>
         <v>Produkte &amp; Preise;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -20455,7 +20455,7 @@
         <v>1448</v>
       </c>
       <c r="E265" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Lunar - FIS</v>
       </c>
       <c r="F265" s="11" t="s">
@@ -20486,7 +20486,7 @@
         <v>1064</v>
       </c>
       <c r="O265" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L265), "", L265), IF(ISBLANK(M265), "", (";"&amp;M265)), IF(ISBLANK(N265), "", (";"&amp;N265)))</f>
+        <f t="shared" si="13"/>
         <v>Risikomanagement;Produkte &amp; Preise;Compliance</v>
       </c>
     </row>
@@ -20504,7 +20504,7 @@
         <v>1459</v>
       </c>
       <c r="E266" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Lunar - Lunar AI Assistant</v>
       </c>
       <c r="F266" s="11" t="s">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="M266" s="11"/>
       <c r="O266" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L266), "", L266), IF(ISBLANK(M266), "", (";"&amp;M266)), IF(ISBLANK(N266), "", (";"&amp;N266)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -20548,7 +20548,7 @@
         <v>1465</v>
       </c>
       <c r="E267" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Toronto-Dominion Bank - GitHub Copilot</v>
       </c>
       <c r="F267" s="11" t="s">
@@ -20573,7 +20573,7 @@
         <v>1065</v>
       </c>
       <c r="O267" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L267), "", L267), IF(ISBLANK(M267), "", (";"&amp;M267)), IF(ISBLANK(N267), "", (";"&amp;N267)))</f>
+        <f t="shared" si="13"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
         <v>1465</v>
       </c>
       <c r="E268" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Canadian Imperial Bank of Commerce - GitHub Copilot</v>
       </c>
       <c r="F268" s="11" t="s">
@@ -20616,7 +20616,7 @@
         <v>1065</v>
       </c>
       <c r="O268" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L268), "", L268), IF(ISBLANK(M268), "", (";"&amp;M268)), IF(ISBLANK(N268), "", (";"&amp;N268)))</f>
+        <f t="shared" si="13"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -20634,7 +20634,7 @@
         <v>1475</v>
       </c>
       <c r="E269" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Royal Bank of Canada - AI-Powered Insights</v>
       </c>
       <c r="F269" s="11" t="s">
@@ -20659,7 +20659,7 @@
         <v>59</v>
       </c>
       <c r="O269" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L269), "", L269), IF(ISBLANK(M269), "", (";"&amp;M269)), IF(ISBLANK(N269), "", (";"&amp;N269)))</f>
+        <f t="shared" si="13"/>
         <v>Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -20677,7 +20677,7 @@
         <v>1476</v>
       </c>
       <c r="E270" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Scotiabank - Credit Passport</v>
       </c>
       <c r="F270" s="11" t="s">
@@ -20708,7 +20708,7 @@
         <v>510</v>
       </c>
       <c r="O270" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L270), "", L270), IF(ISBLANK(M270), "", (";"&amp;M270)), IF(ISBLANK(N270), "", (";"&amp;N270)))</f>
+        <f t="shared" si="13"/>
         <v>Marketing &amp; Vertrieb;Produkte &amp; Preise;Datenmanagement</v>
       </c>
     </row>
@@ -20726,7 +20726,7 @@
         <v>1482</v>
       </c>
       <c r="E271" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Grupo Financiero Banorte - Traydstream</v>
       </c>
       <c r="F271" s="11" t="s">
@@ -20752,7 +20752,7 @@
       </c>
       <c r="M271" s="11"/>
       <c r="O271" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L271), "", L271), IF(ISBLANK(M271), "", (";"&amp;M271)), IF(ISBLANK(N271), "", (";"&amp;N271)))</f>
+        <f t="shared" si="13"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -20770,7 +20770,7 @@
         <v>1487</v>
       </c>
       <c r="E272" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Banco Bradesco - E-agro</v>
       </c>
       <c r="F272" s="11" t="s">
@@ -20798,7 +20798,7 @@
         <v>59</v>
       </c>
       <c r="O272" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L272), "", L272), IF(ISBLANK(M272), "", (";"&amp;M272)), IF(ISBLANK(N272), "", (";"&amp;N272)))</f>
+        <f t="shared" si="13"/>
         <v>Produkte &amp; Preise;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
         <v>1494</v>
       </c>
       <c r="E273" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Banco Patagonia - Dynatrace</v>
       </c>
       <c r="F273" s="11" t="s">
@@ -20844,7 +20844,7 @@
         <v>1682</v>
       </c>
       <c r="O273" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L273), "", L273), IF(ISBLANK(M273), "", (";"&amp;M273)), IF(ISBLANK(N273), "", (";"&amp;N273)))</f>
+        <f t="shared" si="13"/>
         <v>IT &amp; IT-Sicherheit;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -20884,7 +20884,7 @@
       </c>
       <c r="M274" s="11"/>
       <c r="O274" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L274), "", L274), IF(ISBLANK(M274), "", (";"&amp;M274)), IF(ISBLANK(N274), "", (";"&amp;N274)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -20902,7 +20902,7 @@
         <v>1508</v>
       </c>
       <c r="E275" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>JPMorgan Chase - Cash Flow Intelligence</v>
       </c>
       <c r="F275" s="11" t="s">
@@ -20927,7 +20927,7 @@
         <v>1685</v>
       </c>
       <c r="O275" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L275), "", L275), IF(ISBLANK(M275), "", (";"&amp;M275)), IF(ISBLANK(N275), "", (";"&amp;N275)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -20966,7 +20966,7 @@
         <v>510</v>
       </c>
       <c r="O276" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L276), "", L276), IF(ISBLANK(M276), "", (";"&amp;M276)), IF(ISBLANK(N276), "", (";"&amp;N276)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -20984,7 +20984,7 @@
         <v>1514</v>
       </c>
       <c r="E277" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>State Street - State Street Alpha</v>
       </c>
       <c r="F277" s="11" t="s">
@@ -21009,7 +21009,7 @@
         <v>510</v>
       </c>
       <c r="O277" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L277), "", L277), IF(ISBLANK(M277), "", (";"&amp;M277)), IF(ISBLANK(N277), "", (";"&amp;N277)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -21027,7 +21027,7 @@
         <v>1519</v>
       </c>
       <c r="E278" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>BNY Mellon - Eliza</v>
       </c>
       <c r="F278" s="11" t="s">
@@ -21058,7 +21058,7 @@
         <v>510</v>
       </c>
       <c r="O278" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L278), "", L278), IF(ISBLANK(M278), "", (";"&amp;M278)), IF(ISBLANK(N278), "", (";"&amp;N278)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung;Querschnittsfunktionen;Datenmanagement</v>
       </c>
     </row>
@@ -21099,7 +21099,7 @@
       <c r="M279" s="11"/>
       <c r="N279" s="11"/>
       <c r="O279" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L279), "", L279), IF(ISBLANK(M279), "", (";"&amp;M279)), IF(ISBLANK(N279), "", (";"&amp;N279)))</f>
+        <f t="shared" si="13"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -21141,7 +21141,7 @@
       <c r="M280" s="11"/>
       <c r="N280" s="11"/>
       <c r="O280" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L280), "", L280), IF(ISBLANK(M280), "", (";"&amp;M280)), IF(ISBLANK(N280), "", (";"&amp;N280)))</f>
+        <f t="shared" si="13"/>
         <v>Produkte &amp; Preise</v>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
         <v>1537</v>
       </c>
       <c r="E281" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Citizens Financial Group - Digital Butler</v>
       </c>
       <c r="F281" s="11" t="s">
@@ -21188,7 +21188,7 @@
       </c>
       <c r="N281" s="11"/>
       <c r="O281" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L281), "", L281), IF(ISBLANK(M281), "", (";"&amp;M281)), IF(ISBLANK(N281), "", (";"&amp;N281)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -21206,7 +21206,7 @@
         <v>1542</v>
       </c>
       <c r="E282" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Comerica - ComerIQ</v>
       </c>
       <c r="F282" s="11" t="s">
@@ -21231,7 +21231,7 @@
         <v>1065</v>
       </c>
       <c r="O282" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L282), "", L282), IF(ISBLANK(M282), "", (";"&amp;M282)), IF(ISBLANK(N282), "", (";"&amp;N282)))</f>
+        <f t="shared" si="13"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -21249,7 +21249,7 @@
         <v>1546</v>
       </c>
       <c r="E283" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Canadian Imperial Bank of Commerce - CIBC AI</v>
       </c>
       <c r="F283" s="11" t="s">
@@ -21276,7 +21276,7 @@
       <c r="M283" s="11"/>
       <c r="N283" s="11"/>
       <c r="O283" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L283), "", L283), IF(ISBLANK(M283), "", (";"&amp;M283)), IF(ISBLANK(N283), "", (";"&amp;N283)))</f>
+        <f t="shared" si="13"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -21294,7 +21294,7 @@
         <v>1551</v>
       </c>
       <c r="E284" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Capital One - Capital One Navigator Platform</v>
       </c>
       <c r="F284" s="11" t="s">
@@ -21322,7 +21322,7 @@
         <v>1685</v>
       </c>
       <c r="O284" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L284), "", L284), IF(ISBLANK(M284), "", (";"&amp;M284)), IF(ISBLANK(N284), "", (";"&amp;N284)))</f>
+        <f t="shared" si="13"/>
         <v>Produkte &amp; Preise;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -21361,7 +21361,7 @@
         <v>1682</v>
       </c>
       <c r="O285" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L285), "", L285), IF(ISBLANK(M285), "", (";"&amp;M285)), IF(ISBLANK(N285), "", (";"&amp;N285)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -21400,7 +21400,7 @@
         <v>1682</v>
       </c>
       <c r="O286" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L286), "", L286), IF(ISBLANK(M286), "", (";"&amp;M286)), IF(ISBLANK(N286), "", (";"&amp;N286)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -21439,7 +21439,7 @@
         <v>1682</v>
       </c>
       <c r="O287" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L287), "", L287), IF(ISBLANK(M287), "", (";"&amp;M287)), IF(ISBLANK(N287), "", (";"&amp;N287)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -21478,7 +21478,7 @@
         <v>1682</v>
       </c>
       <c r="O288" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L288), "", L288), IF(ISBLANK(M288), "", (";"&amp;M288)), IF(ISBLANK(N288), "", (";"&amp;N288)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -21496,7 +21496,7 @@
         <v>1583</v>
       </c>
       <c r="E289" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Standard Bank South Africa - Budget Manager</v>
       </c>
       <c r="F289" s="11" t="s">
@@ -21523,7 +21523,7 @@
       <c r="M289" s="11"/>
       <c r="N289" s="11"/>
       <c r="O289" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L289), "", L289), IF(ISBLANK(M289), "", (";"&amp;M289)), IF(ISBLANK(N289), "", (";"&amp;N289)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -21562,7 +21562,7 @@
         <v>1682</v>
       </c>
       <c r="O290" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L290), "", L290), IF(ISBLANK(M290), "", (";"&amp;M290)), IF(ISBLANK(N290), "", (";"&amp;N290)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -21580,7 +21580,7 @@
         <v>1594</v>
       </c>
       <c r="E291" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>ANZ Banking Group - ANZ Transactional Banking</v>
       </c>
       <c r="F291" s="11" t="s">
@@ -21605,7 +21605,7 @@
         <v>1682</v>
       </c>
       <c r="O291" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L291), "", L291), IF(ISBLANK(M291), "", (";"&amp;M291)), IF(ISBLANK(N291), "", (";"&amp;N291)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -21623,7 +21623,7 @@
         <v>545</v>
       </c>
       <c r="E292" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Commonwealth Bank of Australia - Customer Engagement Engine</v>
       </c>
       <c r="F292" s="11" t="s">
@@ -21649,7 +21649,7 @@
       </c>
       <c r="M292" s="11"/>
       <c r="O292" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L292), "", L292), IF(ISBLANK(M292), "", (";"&amp;M292)), IF(ISBLANK(N292), "", (";"&amp;N292)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -21690,7 +21690,7 @@
       <c r="M293" s="11"/>
       <c r="N293" s="11"/>
       <c r="O293" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L293), "", L293), IF(ISBLANK(M293), "", (";"&amp;M293)), IF(ISBLANK(N293), "", (";"&amp;N293)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -21732,7 +21732,7 @@
         <v>1684</v>
       </c>
       <c r="O294" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L294), "", L294), IF(ISBLANK(M294), "", (";"&amp;M294)), IF(ISBLANK(N294), "", (";"&amp;N294)))</f>
+        <f t="shared" si="13"/>
         <v>Marketing &amp; Vertrieb;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -21750,7 +21750,7 @@
         <v>1614</v>
       </c>
       <c r="E295" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Goldman Sachs - QIS BERT</v>
       </c>
       <c r="F295" s="11" t="s">
@@ -21775,7 +21775,7 @@
         <v>510</v>
       </c>
       <c r="O295" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L295), "", L295), IF(ISBLANK(M295), "", (";"&amp;M295)), IF(ISBLANK(N295), "", (";"&amp;N295)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -21815,7 +21815,7 @@
       </c>
       <c r="M296" s="11"/>
       <c r="O296" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L296), "", L296), IF(ISBLANK(M296), "", (";"&amp;M296)), IF(ISBLANK(N296), "", (";"&amp;N296)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -21854,7 +21854,7 @@
         <v>1065</v>
       </c>
       <c r="O297" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L297), "", L297), IF(ISBLANK(M297), "", (";"&amp;M297)), IF(ISBLANK(N297), "", (";"&amp;N297)))</f>
+        <f t="shared" si="13"/>
         <v>IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -21897,7 +21897,7 @@
         <v>510</v>
       </c>
       <c r="O298" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L298), "", L298), IF(ISBLANK(M298), "", (";"&amp;M298)), IF(ISBLANK(N298), "", (";"&amp;N298)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -21915,7 +21915,7 @@
         <v>1637</v>
       </c>
       <c r="E299" s="2" t="str">
-        <f t="shared" ref="E299:E362" si="9" xml:space="preserve"> C299 &amp; " - " &amp; D299</f>
+        <f t="shared" ref="E299:E362" si="14" xml:space="preserve"> C299 &amp; " - " &amp; D299</f>
         <v>BRI - Sabrina</v>
       </c>
       <c r="F299" s="11" t="s">
@@ -21941,7 +21941,7 @@
       </c>
       <c r="M299" s="11"/>
       <c r="O299" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L299), "", L299), IF(ISBLANK(M299), "", (";"&amp;M299)), IF(ISBLANK(N299), "", (";"&amp;N299)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -21959,7 +21959,7 @@
         <v>1644</v>
       </c>
       <c r="E300" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Agricultural Bank of China - ChatABC</v>
       </c>
       <c r="F300" s="11" t="s">
@@ -21984,7 +21984,7 @@
         <v>1682</v>
       </c>
       <c r="O300" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L300), "", L300), IF(ISBLANK(M300), "", (";"&amp;M300)), IF(ISBLANK(N300), "", (";"&amp;N300)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -22002,7 +22002,7 @@
         <v>1649</v>
       </c>
       <c r="E301" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Chinese Construction Bank - 方舟计划 (Arche-Projekt)</v>
       </c>
       <c r="F301" s="11" t="s">
@@ -22027,7 +22027,7 @@
         <v>1682</v>
       </c>
       <c r="O301" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L301), "", L301), IF(ISBLANK(M301), "", (";"&amp;M301)), IF(ISBLANK(N301), "", (";"&amp;N301)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -22045,7 +22045,7 @@
         <v>1655</v>
       </c>
       <c r="E302" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Postal Savings Bank of China - 邮储大脑 (PSB Brain)</v>
       </c>
       <c r="F302" s="11" t="s">
@@ -22071,7 +22071,7 @@
       </c>
       <c r="M302" s="11"/>
       <c r="O302" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L302), "", L302), IF(ISBLANK(M302), "", (";"&amp;M302)), IF(ISBLANK(N302), "", (";"&amp;N302)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -22110,7 +22110,7 @@
         <v>510</v>
       </c>
       <c r="O303" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L303), "", L303), IF(ISBLANK(M303), "", (";"&amp;M303)), IF(ISBLANK(N303), "", (";"&amp;N303)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -22150,7 +22150,7 @@
       </c>
       <c r="M304" s="11"/>
       <c r="O304" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L304), "", L304), IF(ISBLANK(M304), "", (";"&amp;M304)), IF(ISBLANK(N304), "", (";"&amp;N304)))</f>
+        <f t="shared" si="13"/>
         <v>Betriebliche Steuerung</v>
       </c>
     </row>
@@ -22193,7 +22193,7 @@
         <v>1685</v>
       </c>
       <c r="O305" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L305), "", L305), IF(ISBLANK(M305), "", (";"&amp;M305)), IF(ISBLANK(N305), "", (";"&amp;N305)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -22232,7 +22232,7 @@
         <v>510</v>
       </c>
       <c r="O306" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L306), "", L306), IF(ISBLANK(M306), "", (";"&amp;M306)), IF(ISBLANK(N306), "", (";"&amp;N306)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -22274,7 +22274,7 @@
         <v>1065</v>
       </c>
       <c r="O307" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L307), "", L307), IF(ISBLANK(M307), "", (";"&amp;M307)), IF(ISBLANK(N307), "", (";"&amp;N307)))</f>
+        <f t="shared" si="13"/>
         <v>Risikomanagement;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
       </c>
       <c r="N308" s="11"/>
       <c r="O308" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L308), "", L308), IF(ISBLANK(M308), "", (";"&amp;M308)), IF(ISBLANK(N308), "", (";"&amp;N308)))</f>
+        <f t="shared" si="13"/>
         <v>Querschnittsfunktionen;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="N309" s="11"/>
       <c r="O309" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L309), "", L309), IF(ISBLANK(M309), "", (";"&amp;M309)), IF(ISBLANK(N309), "", (";"&amp;N309)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement;Querschnittsfunktionen</v>
       </c>
     </row>
@@ -22403,7 +22403,7 @@
       </c>
       <c r="N310" s="11"/>
       <c r="O310" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L310), "", L310), IF(ISBLANK(M310), "", (";"&amp;M310)), IF(ISBLANK(N310), "", (";"&amp;N310)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service;Datenmanagement</v>
       </c>
     </row>
@@ -22421,7 +22421,7 @@
         <v>1719</v>
       </c>
       <c r="E311" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Bank of China - BOC Brain</v>
       </c>
       <c r="F311" s="11" t="s">
@@ -22452,7 +22452,7 @@
         <v>1683</v>
       </c>
       <c r="O311" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L311), "", L311), IF(ISBLANK(M311), "", (";"&amp;M311)), IF(ISBLANK(N311), "", (";"&amp;N311)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service;Datenmanagement;Querschnittsfunktionen</v>
       </c>
     </row>
@@ -22470,7 +22470,7 @@
         <v>1725</v>
       </c>
       <c r="E312" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Industrial and Commercial Bank of China - ICBC Smart</v>
       </c>
       <c r="F312" s="11" t="s">
@@ -22495,7 +22495,7 @@
         <v>1685</v>
       </c>
       <c r="O312" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L312), "", L312), IF(ISBLANK(M312), "", (";"&amp;M312)), IF(ISBLANK(N312), "", (";"&amp;N312)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -22540,7 +22540,7 @@
         <v>378</v>
       </c>
       <c r="O313" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L313), "", L313), IF(ISBLANK(M313), "", (";"&amp;M313)), IF(ISBLANK(N313), "", (";"&amp;N313)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement;Betriebliche Steuerung;Risikomanagement</v>
       </c>
     </row>
@@ -22558,7 +22558,7 @@
         <v>1735</v>
       </c>
       <c r="E314" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>DKB - KI Support</v>
       </c>
       <c r="F314" s="11" t="s">
@@ -22589,7 +22589,7 @@
         <v>1684</v>
       </c>
       <c r="O314" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L314), "", L314), IF(ISBLANK(M314), "", (";"&amp;M314)), IF(ISBLANK(N314), "", (";"&amp;N314)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -22607,7 +22607,7 @@
         <v>1739</v>
       </c>
       <c r="E315" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>VR Bank - LAIC ADVISOR</v>
       </c>
       <c r="F315" s="11" t="s">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="N315" s="15"/>
       <c r="O315" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L315), "", L315), IF(ISBLANK(M315), "", (";"&amp;M315)), IF(ISBLANK(N315), "", (";"&amp;N315)))</f>
+        <f t="shared" si="13"/>
         <v>Marketing &amp; Vertrieb;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -22678,7 +22678,7 @@
         <v>59</v>
       </c>
       <c r="O316" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L316), "", L316), IF(ISBLANK(M316), "", (";"&amp;M316)), IF(ISBLANK(N316), "", (";"&amp;N316)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -22696,7 +22696,7 @@
         <v>1748</v>
       </c>
       <c r="E317" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>VR Bank - plainGPT</v>
       </c>
       <c r="F317" s="11" t="s">
@@ -22722,7 +22722,7 @@
       </c>
       <c r="M317" s="15"/>
       <c r="O317" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L317), "", L317), IF(ISBLANK(M317), "", (";"&amp;M317)), IF(ISBLANK(N317), "", (";"&amp;N317)))</f>
+        <f t="shared" si="13"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -22740,7 +22740,7 @@
         <v>1754</v>
       </c>
       <c r="E318" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Belfius - RiskShield</v>
       </c>
       <c r="F318" s="11" t="s">
@@ -22768,7 +22768,7 @@
         <v>1065</v>
       </c>
       <c r="O318" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L318), "", L318), IF(ISBLANK(M318), "", (";"&amp;M318)), IF(ISBLANK(N318), "", (";"&amp;N318)))</f>
+        <f t="shared" si="13"/>
         <v>Risikomanagement;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
         <v>1759</v>
       </c>
       <c r="E319" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>ING - ING Scan &amp; Drive</v>
       </c>
       <c r="F319" s="11" t="s">
@@ -22817,7 +22817,7 @@
         <v>1684</v>
       </c>
       <c r="O319" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L319), "", L319), IF(ISBLANK(M319), "", (";"&amp;M319)), IF(ISBLANK(N319), "", (";"&amp;N319)))</f>
+        <f t="shared" si="13"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -22856,7 +22856,7 @@
         <v>1683</v>
       </c>
       <c r="O320" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L320), "", L320), IF(ISBLANK(M320), "", (";"&amp;M320)), IF(ISBLANK(N320), "", (";"&amp;N320)))</f>
+        <f t="shared" si="13"/>
         <v>Querschnittsfunktionen</v>
       </c>
     </row>
@@ -22874,7 +22874,7 @@
         <v>1771</v>
       </c>
       <c r="E321" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Pictet - One.Chat</v>
       </c>
       <c r="F321" s="11" t="s">
@@ -22902,7 +22902,7 @@
         <v>1683</v>
       </c>
       <c r="O321" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L321), "", L321), IF(ISBLANK(M321), "", (";"&amp;M321)), IF(ISBLANK(N321), "", (";"&amp;N321)))</f>
+        <f t="shared" si="13"/>
         <v>Datenmanagement;Querschnittsfunktionen</v>
       </c>
     </row>
@@ -22945,7 +22945,7 @@
       </c>
       <c r="N322" s="15"/>
       <c r="O322" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L322), "", L322), IF(ISBLANK(M322), "", (";"&amp;M322)), IF(ISBLANK(N322), "", (";"&amp;N322)))</f>
+        <f t="shared" ref="O322:O362" si="15" xml:space="preserve"> CONCATENATE(IF(ISBLANK(L322), "", L322), IF(ISBLANK(M322), "", (";"&amp;M322)), IF(ISBLANK(N322), "", (";"&amp;N322)))</f>
         <v>Onboarding &amp; Legitimation;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -22963,7 +22963,7 @@
         <v>1782</v>
       </c>
       <c r="E323" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>KBC - Kate</v>
       </c>
       <c r="F323" s="11" t="s">
@@ -22988,7 +22988,7 @@
         <v>1685</v>
       </c>
       <c r="O323" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L323), "", L323), IF(ISBLANK(M323), "", (";"&amp;M323)), IF(ISBLANK(N323), "", (";"&amp;N323)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -23006,7 +23006,7 @@
         <v>1787</v>
       </c>
       <c r="E324" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Union Investment - VisualVest</v>
       </c>
       <c r="F324" s="11" t="s">
@@ -23037,7 +23037,7 @@
         <v>1685</v>
       </c>
       <c r="O324" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L324), "", L324), IF(ISBLANK(M324), "", (";"&amp;M324)), IF(ISBLANK(N324), "", (";"&amp;N324)))</f>
+        <f t="shared" si="15"/>
         <v>Marketing &amp; Vertrieb;Produkte &amp; Preise;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -23055,7 +23055,7 @@
         <v>1793</v>
       </c>
       <c r="E325" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Quirin Privatbank - Q.Ai</v>
       </c>
       <c r="F325" s="11" t="s">
@@ -23080,7 +23080,7 @@
         <v>1685</v>
       </c>
       <c r="O325" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L325), "", L325), IF(ISBLANK(M325), "", (";"&amp;M325)), IF(ISBLANK(N325), "", (";"&amp;N325)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -23098,7 +23098,7 @@
         <v>1798</v>
       </c>
       <c r="E326" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Migros Bank - Migros Bank GPT</v>
       </c>
       <c r="F326" s="11" t="s">
@@ -23123,7 +23123,7 @@
         <v>1685</v>
       </c>
       <c r="O326" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L326), "", L326), IF(ISBLANK(M326), "", (";"&amp;M326)), IF(ISBLANK(N326), "", (";"&amp;N326)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
         <v>1803</v>
       </c>
       <c r="E327" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>UBS - Red</v>
       </c>
       <c r="F327" s="11" t="s">
@@ -23172,7 +23172,7 @@
         <v>510</v>
       </c>
       <c r="O327" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L327), "", L327), IF(ISBLANK(M327), "", (";"&amp;M327)), IF(ISBLANK(N327), "", (";"&amp;N327)))</f>
+        <f t="shared" si="15"/>
         <v>Marketing &amp; Vertrieb;Kundenbindung &amp; Service;Datenmanagement</v>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
         <v>1809</v>
       </c>
       <c r="E328" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Migros Bank - Secure AI Chat</v>
       </c>
       <c r="F328" s="11" t="s">
@@ -23212,7 +23212,7 @@
         <v>59</v>
       </c>
       <c r="O328" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L328), "", L328), IF(ISBLANK(M328), "", (";"&amp;M328)), IF(ISBLANK(N328), "", (";"&amp;N328)))</f>
+        <f t="shared" si="15"/>
         <v>Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -23230,7 +23230,7 @@
         <v>1811</v>
       </c>
       <c r="E329" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Migros Bank - E-Mail Assistent</v>
       </c>
       <c r="F329" s="11" t="s">
@@ -23255,7 +23255,7 @@
         <v>1685</v>
       </c>
       <c r="O329" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L329), "", L329), IF(ISBLANK(M329), "", (";"&amp;M329)), IF(ISBLANK(N329), "", (";"&amp;N329)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
         <v>1817</v>
       </c>
       <c r="E330" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Banco do Brasil - ARI (Área de Recomendações Inteligentes)</v>
       </c>
       <c r="F330" s="11" t="s">
@@ -23304,7 +23304,7 @@
         <v>59</v>
       </c>
       <c r="O330" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L330), "", L330), IF(ISBLANK(M330), "", (";"&amp;M330)), IF(ISBLANK(N330), "", (";"&amp;N330)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Betriebliche Steuerung;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -23322,7 +23322,7 @@
         <v>1822</v>
       </c>
       <c r="E331" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Banco Bradesco - BIA (Bradesco Inteligência Artificial)</v>
       </c>
       <c r="F331" s="11" t="s">
@@ -23353,7 +23353,7 @@
         <v>510</v>
       </c>
       <c r="O331" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L331), "", L331), IF(ISBLANK(M331), "", (";"&amp;M331)), IF(ISBLANK(N331), "", (";"&amp;N331)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Betriebliche Steuerung;Datenmanagement</v>
       </c>
     </row>
@@ -23371,7 +23371,7 @@
         <v>1828</v>
       </c>
       <c r="E332" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Itau Unibanco - Inteligência Itaú</v>
       </c>
       <c r="F332" s="11" t="s">
@@ -23402,7 +23402,7 @@
         <v>510</v>
       </c>
       <c r="O332" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L332), "", L332), IF(ISBLANK(M332), "", (";"&amp;M332)), IF(ISBLANK(N332), "", (";"&amp;N332)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb;Datenmanagement</v>
       </c>
     </row>
@@ -23420,7 +23420,7 @@
         <v>1834</v>
       </c>
       <c r="E333" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Banco Macro - Cuenta bancarIA</v>
       </c>
       <c r="F333" s="11" t="s">
@@ -23445,7 +23445,7 @@
         <v>1685</v>
       </c>
       <c r="O333" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L333), "", L333), IF(ISBLANK(M333), "", (";"&amp;M333)), IF(ISBLANK(N333), "", (";"&amp;N333)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -23463,7 +23463,7 @@
         <v>1838</v>
       </c>
       <c r="E334" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>BBVA - ChatGPT BBVA</v>
       </c>
       <c r="F334" s="11" t="s">
@@ -23494,7 +23494,7 @@
         <v>1683</v>
       </c>
       <c r="O334" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L334), "", L334), IF(ISBLANK(M334), "", (";"&amp;M334)), IF(ISBLANK(N334), "", (";"&amp;N334)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Datenmanagement;Querschnittsfunktionen</v>
       </c>
     </row>
@@ -23512,7 +23512,7 @@
         <v>1845</v>
       </c>
       <c r="E335" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Banco de Crédito del Perú - Clara</v>
       </c>
       <c r="F335" s="11" t="s">
@@ -23543,7 +23543,7 @@
         <v>1683</v>
       </c>
       <c r="O335" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L335), "", L335), IF(ISBLANK(M335), "", (";"&amp;M335)), IF(ISBLANK(N335), "", (";"&amp;N335)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Datenmanagement;Querschnittsfunktionen</v>
       </c>
     </row>
@@ -23561,7 +23561,7 @@
         <v>1850</v>
       </c>
       <c r="E336" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>BBVA - 360 BBVA Perú</v>
       </c>
       <c r="F336" s="11" t="s">
@@ -23589,7 +23589,7 @@
         <v>1682</v>
       </c>
       <c r="O336" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L336), "", L336), IF(ISBLANK(M336), "", (";"&amp;M336)), IF(ISBLANK(N336), "", (";"&amp;N336)))</f>
+        <f t="shared" si="15"/>
         <v>IT &amp; IT-Sicherheit;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -23607,7 +23607,7 @@
         <v>1856</v>
       </c>
       <c r="E337" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Canadian Imperial Bank of Commerce - Tiffany</v>
       </c>
       <c r="F337" s="11" t="s">
@@ -23632,7 +23632,7 @@
         <v>1685</v>
       </c>
       <c r="O337" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L337), "", L337), IF(ISBLANK(M337), "", (";"&amp;M337)), IF(ISBLANK(N337), "", (";"&amp;N337)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -23650,7 +23650,7 @@
         <v>1862</v>
       </c>
       <c r="E338" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Banco Bolivariano - Avi24</v>
       </c>
       <c r="F338" s="11" t="s">
@@ -23681,7 +23681,7 @@
         <v>263</v>
       </c>
       <c r="O338" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L338), "", L338), IF(ISBLANK(M338), "", (";"&amp;M338)), IF(ISBLANK(N338), "", (";"&amp;N338)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb;Onboarding &amp; Legitimation</v>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
         <v>1866</v>
       </c>
       <c r="E339" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Nubank - GPT-4 Fraud Detector</v>
       </c>
       <c r="F339" s="11" t="s">
@@ -23728,7 +23728,7 @@
       </c>
       <c r="N339" s="15"/>
       <c r="O339" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L339), "", L339), IF(ISBLANK(M339), "", (";"&amp;M339)), IF(ISBLANK(N339), "", (";"&amp;N339)))</f>
+        <f t="shared" si="15"/>
         <v>Risikomanagement;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -23746,7 +23746,7 @@
         <v>1883</v>
       </c>
       <c r="E340" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Banco Macro - BancoChat</v>
       </c>
       <c r="F340" s="11" t="s">
@@ -23774,7 +23774,7 @@
         <v>59</v>
       </c>
       <c r="O340" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L340), "", L340), IF(ISBLANK(M340), "", (";"&amp;M340)), IF(ISBLANK(N340), "", (";"&amp;N340)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
@@ -23819,7 +23819,7 @@
         <v>378</v>
       </c>
       <c r="O341" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L341), "", L341), IF(ISBLANK(M341), "", (";"&amp;M341)), IF(ISBLANK(N341), "", (";"&amp;N341)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise;Risikomanagement</v>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
         <v>1895</v>
       </c>
       <c r="E342" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Banco de Crédito de Bolivia - OlivIA</v>
       </c>
       <c r="F342" s="11" t="s">
@@ -23868,7 +23868,7 @@
         <v>1682</v>
       </c>
       <c r="O342" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L342), "", L342), IF(ISBLANK(M342), "", (";"&amp;M342)), IF(ISBLANK(N342), "", (";"&amp;N342)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Datenmanagement;Betriebliche Steuerung</v>
       </c>
     </row>
@@ -23886,7 +23886,7 @@
         <v>1899</v>
       </c>
       <c r="E343" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Banco Macro - eMe</v>
       </c>
       <c r="F343" s="11" t="s">
@@ -23917,7 +23917,7 @@
         <v>263</v>
       </c>
       <c r="O343" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L343), "", L343), IF(ISBLANK(M343), "", (";"&amp;M343)), IF(ISBLANK(N343), "", (";"&amp;N343)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb;Onboarding &amp; Legitimation</v>
       </c>
     </row>
@@ -23959,7 +23959,7 @@
         <v>1684</v>
       </c>
       <c r="O344" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L344), "", L344), IF(ISBLANK(M344), "", (";"&amp;M344)), IF(ISBLANK(N344), "", (";"&amp;N344)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service;Produkte &amp; Preise</v>
       </c>
     </row>
@@ -23998,7 +23998,7 @@
         <v>1685</v>
       </c>
       <c r="O345" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L345), "", L345), IF(ISBLANK(M345), "", (";"&amp;M345)), IF(ISBLANK(N345), "", (";"&amp;N345)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24037,7 +24037,7 @@
         <v>510</v>
       </c>
       <c r="O346" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L346), "", L346), IF(ISBLANK(M346), "", (";"&amp;M346)), IF(ISBLANK(N346), "", (";"&amp;N346)))</f>
+        <f t="shared" si="15"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -24079,7 +24079,7 @@
         <v>1065</v>
       </c>
       <c r="O347" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L347), "", L347), IF(ISBLANK(M347), "", (";"&amp;M347)), IF(ISBLANK(N347), "", (";"&amp;N347)))</f>
+        <f t="shared" si="15"/>
         <v>Querschnittsfunktionen;IT &amp; IT-Sicherheit</v>
       </c>
     </row>
@@ -24097,7 +24097,7 @@
         <v>1940</v>
       </c>
       <c r="E348" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>MONETA Money Bank - Tom</v>
       </c>
       <c r="F348" s="11" t="s">
@@ -24123,7 +24123,7 @@
       </c>
       <c r="M348" s="15"/>
       <c r="O348" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L348), "", L348), IF(ISBLANK(M348), "", (";"&amp;M348)), IF(ISBLANK(N348), "", (";"&amp;N348)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24141,7 +24141,7 @@
         <v>1949</v>
       </c>
       <c r="E349" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Banca Transilvania - Chat BT</v>
       </c>
       <c r="F349" s="11" t="s">
@@ -24167,7 +24167,7 @@
       </c>
       <c r="M349" s="15"/>
       <c r="O349" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L349), "", L349), IF(ISBLANK(M349), "", (";"&amp;M349)), IF(ISBLANK(N349), "", (";"&amp;N349)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
         <v>1955</v>
       </c>
       <c r="E350" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Raiffeisen Bank (Rumänien) - ARI</v>
       </c>
       <c r="F350" s="11" t="s">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="M350" s="15"/>
       <c r="O350" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L350), "", L350), IF(ISBLANK(M350), "", (";"&amp;M350)), IF(ISBLANK(N350), "", (";"&amp;N350)))</f>
+        <f t="shared" si="15"/>
         <v>Datenmanagement</v>
       </c>
     </row>
@@ -24229,7 +24229,7 @@
         <v>1960</v>
       </c>
       <c r="E351" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Zagrebačka banka - Mia</v>
       </c>
       <c r="F351" s="11" t="s">
@@ -24255,7 +24255,7 @@
       </c>
       <c r="M351" s="15"/>
       <c r="O351" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L351), "", L351), IF(ISBLANK(M351), "", (";"&amp;M351)), IF(ISBLANK(N351), "", (";"&amp;N351)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24300,7 +24300,7 @@
         <v>263</v>
       </c>
       <c r="O352" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L352), "", L352), IF(ISBLANK(M352), "", (";"&amp;M352)), IF(ISBLANK(N352), "", (";"&amp;N352)))</f>
+        <f t="shared" si="15"/>
         <v>Querschnittsfunktionen;Datenmanagement;Onboarding &amp; Legitimation</v>
       </c>
     </row>
@@ -24318,7 +24318,7 @@
         <v>287</v>
       </c>
       <c r="E353" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>SEB Bank - Aida</v>
       </c>
       <c r="F353" s="11" t="s">
@@ -24345,7 +24345,7 @@
       <c r="M353" s="15"/>
       <c r="N353" s="15"/>
       <c r="O353" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L353), "", L353), IF(ISBLANK(M353), "", (";"&amp;M353)), IF(ISBLANK(N353), "", (";"&amp;N353)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24388,7 +24388,7 @@
       </c>
       <c r="N354" s="15"/>
       <c r="O354" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L354), "", L354), IF(ISBLANK(M354), "", (";"&amp;M354)), IF(ISBLANK(N354), "", (";"&amp;N354)))</f>
+        <f t="shared" si="15"/>
         <v>Risikomanagement;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24406,7 +24406,7 @@
         <v>1983</v>
       </c>
       <c r="E355" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Bank of Valetta - Bovey</v>
       </c>
       <c r="F355" s="11" t="s">
@@ -24432,7 +24432,7 @@
       </c>
       <c r="M355" s="15"/>
       <c r="O355" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L355), "", L355), IF(ISBLANK(M355), "", (";"&amp;M355)), IF(ISBLANK(N355), "", (";"&amp;N355)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24450,7 +24450,7 @@
         <v>1990</v>
       </c>
       <c r="E356" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>APS Bank - AVA</v>
       </c>
       <c r="F356" s="11" t="s">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="M356" s="15"/>
       <c r="O356" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L356), "", L356), IF(ISBLANK(M356), "", (";"&amp;M356)), IF(ISBLANK(N356), "", (";"&amp;N356)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24494,7 +24494,7 @@
         <v>1994</v>
       </c>
       <c r="E357" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Hellenic Bank - Commercial Intelligence</v>
       </c>
       <c r="F357" s="11" t="s">
@@ -24520,7 +24520,7 @@
       </c>
       <c r="M357" s="15"/>
       <c r="O357" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L357), "", L357), IF(ISBLANK(M357), "", (";"&amp;M357)), IF(ISBLANK(N357), "", (";"&amp;N357)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24560,7 +24560,7 @@
       </c>
       <c r="M358" s="15"/>
       <c r="O358" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L358), "", L358), IF(ISBLANK(M358), "", (";"&amp;M358)), IF(ISBLANK(N358), "", (";"&amp;N358)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24578,7 +24578,7 @@
         <v>2008</v>
       </c>
       <c r="E359" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Nova Ljubljanska banka - SymphonyAI Net Reveal</v>
       </c>
       <c r="F359" s="11" t="s">
@@ -24606,7 +24606,7 @@
         <v>510</v>
       </c>
       <c r="O359" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L359), "", L359), IF(ISBLANK(M359), "", (";"&amp;M359)), IF(ISBLANK(N359), "", (";"&amp;N359)))</f>
+        <f t="shared" si="15"/>
         <v>Risikomanagement;Datenmanagement</v>
       </c>
     </row>
@@ -24624,7 +24624,7 @@
         <v>2013</v>
       </c>
       <c r="E360" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Tatra Banka - Adam</v>
       </c>
       <c r="F360" s="11" t="s">
@@ -24651,7 +24651,7 @@
       <c r="M360" s="15"/>
       <c r="N360" s="15"/>
       <c r="O360" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L360), "", L360), IF(ISBLANK(M360), "", (";"&amp;M360)), IF(ISBLANK(N360), "", (";"&amp;N360)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24669,7 +24669,7 @@
         <v>2017</v>
       </c>
       <c r="E361" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>CaixaBank - GalaxIA</v>
       </c>
       <c r="F361" s="11" t="s">
@@ -24700,7 +24700,7 @@
         <v>1685</v>
       </c>
       <c r="O361" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L361), "", L361), IF(ISBLANK(M361), "", (";"&amp;M361)), IF(ISBLANK(N361), "", (";"&amp;N361)))</f>
+        <f t="shared" si="15"/>
         <v>Querschnittsfunktionen;Betriebliche Steuerung;Kundenbindung &amp; Service</v>
       </c>
     </row>
@@ -24718,7 +24718,7 @@
         <v>2029</v>
       </c>
       <c r="E362" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>Chinese Construction Bank - XiaoWei</v>
       </c>
       <c r="F362" s="11" t="s">
@@ -24743,492 +24743,12 @@
         <v>1685</v>
       </c>
       <c r="O362" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L362), "", L362), IF(ISBLANK(M362), "", (";"&amp;M362)), IF(ISBLANK(N362), "", (";"&amp;N362)))</f>
+        <f t="shared" si="15"/>
         <v>Kundenbindung &amp; Service</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E363" s="2" t="str">
-        <f t="shared" ref="E363:E377" si="10" xml:space="preserve"> C363 &amp; " - " &amp; D363</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O363" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L363), "", L363), IF(ISBLANK(M363), "", (";"&amp;M363)), IF(ISBLANK(N363), "", (";"&amp;N363)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E364" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O364" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L364), "", L364), IF(ISBLANK(M364), "", (";"&amp;M364)), IF(ISBLANK(N364), "", (";"&amp;N364)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E365" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O365" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L365), "", L365), IF(ISBLANK(M365), "", (";"&amp;M365)), IF(ISBLANK(N365), "", (";"&amp;N365)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E366" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O366" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L366), "", L366), IF(ISBLANK(M366), "", (";"&amp;M366)), IF(ISBLANK(N366), "", (";"&amp;N366)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E367" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O367" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L367), "", L367), IF(ISBLANK(M367), "", (";"&amp;M367)), IF(ISBLANK(N367), "", (";"&amp;N367)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E368" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O368" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L368), "", L368), IF(ISBLANK(M368), "", (";"&amp;M368)), IF(ISBLANK(N368), "", (";"&amp;N368)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E369" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O369" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L369), "", L369), IF(ISBLANK(M369), "", (";"&amp;M369)), IF(ISBLANK(N369), "", (";"&amp;N369)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E370" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O370" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L370), "", L370), IF(ISBLANK(M370), "", (";"&amp;M370)), IF(ISBLANK(N370), "", (";"&amp;N370)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E371" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O371" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L371), "", L371), IF(ISBLANK(M371), "", (";"&amp;M371)), IF(ISBLANK(N371), "", (";"&amp;N371)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E372" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O372" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L372), "", L372), IF(ISBLANK(M372), "", (";"&amp;M372)), IF(ISBLANK(N372), "", (";"&amp;N372)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E373" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O373" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L373), "", L373), IF(ISBLANK(M373), "", (";"&amp;M373)), IF(ISBLANK(N373), "", (";"&amp;N373)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E374" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O374" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L374), "", L374), IF(ISBLANK(M374), "", (";"&amp;M374)), IF(ISBLANK(N374), "", (";"&amp;N374)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E375" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O375" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L375), "", L375), IF(ISBLANK(M375), "", (";"&amp;M375)), IF(ISBLANK(N375), "", (";"&amp;N375)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E376" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O376" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L376), "", L376), IF(ISBLANK(M376), "", (";"&amp;M376)), IF(ISBLANK(N376), "", (";"&amp;N376)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E377" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="O377" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L377), "", L377), IF(ISBLANK(M377), "", (";"&amp;M377)), IF(ISBLANK(N377), "", (";"&amp;N377)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="O378" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L378), "", L378), IF(ISBLANK(M378), "", (";"&amp;M378)), IF(ISBLANK(N378), "", (";"&amp;N378)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="O379" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L379), "", L379), IF(ISBLANK(M379), "", (";"&amp;M379)), IF(ISBLANK(N379), "", (";"&amp;N379)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="O380" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L380), "", L380), IF(ISBLANK(M380), "", (";"&amp;M380)), IF(ISBLANK(N380), "", (";"&amp;N380)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="O381" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L381), "", L381), IF(ISBLANK(M381), "", (";"&amp;M381)), IF(ISBLANK(N381), "", (";"&amp;N381)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="O382" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L382), "", L382), IF(ISBLANK(M382), "", (";"&amp;M382)), IF(ISBLANK(N382), "", (";"&amp;N382)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="O383" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L383), "", L383), IF(ISBLANK(M383), "", (";"&amp;M383)), IF(ISBLANK(N383), "", (";"&amp;N383)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="O384" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L384), "", L384), IF(ISBLANK(M384), "", (";"&amp;M384)), IF(ISBLANK(N384), "", (";"&amp;N384)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O385" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L385), "", L385), IF(ISBLANK(M385), "", (";"&amp;M385)), IF(ISBLANK(N385), "", (";"&amp;N385)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O386" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L386), "", L386), IF(ISBLANK(M386), "", (";"&amp;M386)), IF(ISBLANK(N386), "", (";"&amp;N386)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O387" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L387), "", L387), IF(ISBLANK(M387), "", (";"&amp;M387)), IF(ISBLANK(N387), "", (";"&amp;N387)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O388" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L388), "", L388), IF(ISBLANK(M388), "", (";"&amp;M388)), IF(ISBLANK(N388), "", (";"&amp;N388)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O389" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L389), "", L389), IF(ISBLANK(M389), "", (";"&amp;M389)), IF(ISBLANK(N389), "", (";"&amp;N389)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O390" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L390), "", L390), IF(ISBLANK(M390), "", (";"&amp;M390)), IF(ISBLANK(N390), "", (";"&amp;N390)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O391" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L391), "", L391), IF(ISBLANK(M391), "", (";"&amp;M391)), IF(ISBLANK(N391), "", (";"&amp;N391)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O392" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L392), "", L392), IF(ISBLANK(M392), "", (";"&amp;M392)), IF(ISBLANK(N392), "", (";"&amp;N392)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O393" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L393), "", L393), IF(ISBLANK(M393), "", (";"&amp;M393)), IF(ISBLANK(N393), "", (";"&amp;N393)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O394" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L394), "", L394), IF(ISBLANK(M394), "", (";"&amp;M394)), IF(ISBLANK(N394), "", (";"&amp;N394)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O395" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L395), "", L395), IF(ISBLANK(M395), "", (";"&amp;M395)), IF(ISBLANK(N395), "", (";"&amp;N395)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O396" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L396), "", L396), IF(ISBLANK(M396), "", (";"&amp;M396)), IF(ISBLANK(N396), "", (";"&amp;N396)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O397" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L397), "", L397), IF(ISBLANK(M397), "", (";"&amp;M397)), IF(ISBLANK(N397), "", (";"&amp;N397)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O398" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L398), "", L398), IF(ISBLANK(M398), "", (";"&amp;M398)), IF(ISBLANK(N398), "", (";"&amp;N398)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O399" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L399), "", L399), IF(ISBLANK(M399), "", (";"&amp;M399)), IF(ISBLANK(N399), "", (";"&amp;N399)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O400" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L400), "", L400), IF(ISBLANK(M400), "", (";"&amp;M400)), IF(ISBLANK(N400), "", (";"&amp;N400)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O401" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L401), "", L401), IF(ISBLANK(M401), "", (";"&amp;M401)), IF(ISBLANK(N401), "", (";"&amp;N401)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O402" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L402), "", L402), IF(ISBLANK(M402), "", (";"&amp;M402)), IF(ISBLANK(N402), "", (";"&amp;N402)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O403" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L403), "", L403), IF(ISBLANK(M403), "", (";"&amp;M403)), IF(ISBLANK(N403), "", (";"&amp;N403)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O404" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L404), "", L404), IF(ISBLANK(M404), "", (";"&amp;M404)), IF(ISBLANK(N404), "", (";"&amp;N404)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="405" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O405" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L405), "", L405), IF(ISBLANK(M405), "", (";"&amp;M405)), IF(ISBLANK(N405), "", (";"&amp;N405)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="406" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O406" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L406), "", L406), IF(ISBLANK(M406), "", (";"&amp;M406)), IF(ISBLANK(N406), "", (";"&amp;N406)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="407" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O407" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L407), "", L407), IF(ISBLANK(M407), "", (";"&amp;M407)), IF(ISBLANK(N407), "", (";"&amp;N407)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="408" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O408" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L408), "", L408), IF(ISBLANK(M408), "", (";"&amp;M408)), IF(ISBLANK(N408), "", (";"&amp;N408)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="409" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O409" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L409), "", L409), IF(ISBLANK(M409), "", (";"&amp;M409)), IF(ISBLANK(N409), "", (";"&amp;N409)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="410" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O410" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L410), "", L410), IF(ISBLANK(M410), "", (";"&amp;M410)), IF(ISBLANK(N410), "", (";"&amp;N410)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="411" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O411" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L411), "", L411), IF(ISBLANK(M411), "", (";"&amp;M411)), IF(ISBLANK(N411), "", (";"&amp;N411)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="412" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O412" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L412), "", L412), IF(ISBLANK(M412), "", (";"&amp;M412)), IF(ISBLANK(N412), "", (";"&amp;N412)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="413" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O413" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L413), "", L413), IF(ISBLANK(M413), "", (";"&amp;M413)), IF(ISBLANK(N413), "", (";"&amp;N413)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="414" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O414" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L414), "", L414), IF(ISBLANK(M414), "", (";"&amp;M414)), IF(ISBLANK(N414), "", (";"&amp;N414)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="415" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O415" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L415), "", L415), IF(ISBLANK(M415), "", (";"&amp;M415)), IF(ISBLANK(N415), "", (";"&amp;N415)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="416" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O416" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L416), "", L416), IF(ISBLANK(M416), "", (";"&amp;M416)), IF(ISBLANK(N416), "", (";"&amp;N416)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="417" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O417" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L417), "", L417), IF(ISBLANK(M417), "", (";"&amp;M417)), IF(ISBLANK(N417), "", (";"&amp;N417)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="418" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O418" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L418), "", L418), IF(ISBLANK(M418), "", (";"&amp;M418)), IF(ISBLANK(N418), "", (";"&amp;N418)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="419" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O419" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L419), "", L419), IF(ISBLANK(M419), "", (";"&amp;M419)), IF(ISBLANK(N419), "", (";"&amp;N419)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="420" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O420" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L420), "", L420), IF(ISBLANK(M420), "", (";"&amp;M420)), IF(ISBLANK(N420), "", (";"&amp;N420)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="421" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O421" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L421), "", L421), IF(ISBLANK(M421), "", (";"&amp;M421)), IF(ISBLANK(N421), "", (";"&amp;N421)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="422" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O422" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L422), "", L422), IF(ISBLANK(M422), "", (";"&amp;M422)), IF(ISBLANK(N422), "", (";"&amp;N422)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="423" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O423" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L423), "", L423), IF(ISBLANK(M423), "", (";"&amp;M423)), IF(ISBLANK(N423), "", (";"&amp;N423)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="424" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O424" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L424), "", L424), IF(ISBLANK(M424), "", (";"&amp;M424)), IF(ISBLANK(N424), "", (";"&amp;N424)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O425" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L425), "", L425), IF(ISBLANK(M425), "", (";"&amp;M425)), IF(ISBLANK(N425), "", (";"&amp;N425)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="426" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O426" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L426), "", L426), IF(ISBLANK(M426), "", (";"&amp;M426)), IF(ISBLANK(N426), "", (";"&amp;N426)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="427" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O427" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L427), "", L427), IF(ISBLANK(M427), "", (";"&amp;M427)), IF(ISBLANK(N427), "", (";"&amp;N427)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="428" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O428" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L428), "", L428), IF(ISBLANK(M428), "", (";"&amp;M428)), IF(ISBLANK(N428), "", (";"&amp;N428)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="429" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O429" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L429), "", L429), IF(ISBLANK(M429), "", (";"&amp;M429)), IF(ISBLANK(N429), "", (";"&amp;N429)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="430" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O430" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L430), "", L430), IF(ISBLANK(M430), "", (";"&amp;M430)), IF(ISBLANK(N430), "", (";"&amp;N430)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="431" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O431" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L431), "", L431), IF(ISBLANK(M431), "", (";"&amp;M431)), IF(ISBLANK(N431), "", (";"&amp;N431)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="432" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O432" s="2" t="str">
-        <f xml:space="preserve"> CONCATENATE(IF(ISBLANK(L432), "", L432), IF(ISBLANK(M432), "", (";"&amp;M432)), IF(ISBLANK(N432), "", (";"&amp;N432)))</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O432"/>
+  <autoFilter ref="A1:O362"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -25251,7 +24771,7 @@
           <x14:formula1>
             <xm:f>Dropdowns!$C$2:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1048576 N2:N1048576</xm:sqref>
+          <xm:sqref>M2:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
